--- a/Pricing Logic/WS_uploads/manual/output_1156_chunk_2.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1156_chunk_2.xlsx
@@ -8448,7 +8448,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>23.5</v>
@@ -8465,7 +8465,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>23.5</v>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>768.75</v>
+        <v>766.25</v>
       </c>
       <c r="E9" t="s">
         <v>2661</v>
@@ -8587,7 +8587,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>140.8274470252522</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
         <v>2662</v>
@@ -8604,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1689.929364303027</v>
+        <v>1692</v>
       </c>
       <c r="E14" t="s">
         <v>2661</v>
@@ -9114,7 +9114,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>43.75</v>
+        <v>43.5</v>
       </c>
       <c r="E44" t="s">
         <v>2662</v>
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s">
         <v>2661</v>
@@ -9743,7 +9743,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>59.25</v>
+        <v>59</v>
       </c>
       <c r="E81" t="s">
         <v>2662</v>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="E82" t="s">
         <v>2661</v>
@@ -9777,7 +9777,7 @@
         <v>68</v>
       </c>
       <c r="D83">
-        <v>175.25</v>
+        <v>174</v>
       </c>
       <c r="E83" t="s">
         <v>2662</v>
@@ -9794,7 +9794,7 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>4381.25</v>
+        <v>4350</v>
       </c>
       <c r="E84" t="s">
         <v>2661</v>
@@ -9811,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>8762.5</v>
+        <v>8700</v>
       </c>
       <c r="E85" t="s">
         <v>2661</v>
@@ -9828,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>517.25</v>
+        <v>517</v>
       </c>
       <c r="E86" t="s">
         <v>2661</v>
@@ -10151,7 +10151,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>566.5</v>
+        <v>564.25</v>
       </c>
       <c r="E105" t="s">
         <v>2662</v>
@@ -10168,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>6798</v>
+        <v>6771</v>
       </c>
       <c r="E106" t="s">
         <v>2661</v>
@@ -10185,7 +10185,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>720.25</v>
+        <v>721.75</v>
       </c>
       <c r="E107" t="s">
         <v>2662</v>
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>8643</v>
+        <v>8661</v>
       </c>
       <c r="E108" t="s">
         <v>2661</v>
@@ -10219,7 +10219,7 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>594.75</v>
+        <v>592.25</v>
       </c>
       <c r="E109" t="s">
         <v>2662</v>
@@ -10236,7 +10236,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>7137</v>
+        <v>7107</v>
       </c>
       <c r="E110" t="s">
         <v>2661</v>
@@ -10253,7 +10253,7 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <v>774.75</v>
+        <v>771.75</v>
       </c>
       <c r="E111" t="s">
         <v>2662</v>
@@ -10270,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>9297</v>
+        <v>9261</v>
       </c>
       <c r="E112" t="s">
         <v>2661</v>
@@ -10304,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>21.75</v>
+        <v>21.5</v>
       </c>
       <c r="E114" t="s">
         <v>2661</v>
@@ -10321,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>33</v>
+        <v>32.75</v>
       </c>
       <c r="E115" t="s">
         <v>2661</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="E126" t="s">
         <v>2661</v>
@@ -10967,7 +10967,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>57</v>
+        <v>56.75</v>
       </c>
       <c r="E153" t="s">
         <v>2662</v>
@@ -10984,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>342</v>
+        <v>340.5</v>
       </c>
       <c r="E154" t="s">
         <v>2661</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="E258" t="s">
         <v>2661</v>
@@ -12769,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="E259" t="s">
         <v>2661</v>
@@ -12786,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E260" t="s">
         <v>2661</v>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s">
         <v>2661</v>
@@ -12837,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="E263" t="s">
         <v>2661</v>
@@ -12854,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>38.5</v>
+        <v>38.25</v>
       </c>
       <c r="E264" t="s">
         <v>2661</v>
@@ -12871,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>39.25</v>
+        <v>39</v>
       </c>
       <c r="E265" t="s">
         <v>2661</v>
@@ -12888,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E266" t="s">
         <v>2661</v>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>39.25</v>
+        <v>39</v>
       </c>
       <c r="E267" t="s">
         <v>2661</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>38.75</v>
+        <v>38.5</v>
       </c>
       <c r="E268" t="s">
         <v>2661</v>
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="E269" t="s">
         <v>2661</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="E270" t="s">
         <v>2661</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>53.25</v>
+        <v>53</v>
       </c>
       <c r="E271" t="s">
         <v>2661</v>
@@ -12990,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>52.75</v>
+        <v>52.25</v>
       </c>
       <c r="E272" t="s">
         <v>2661</v>
@@ -13007,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>53.25</v>
+        <v>53</v>
       </c>
       <c r="E273" t="s">
         <v>2661</v>
@@ -13024,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>52.5</v>
+        <v>52.25</v>
       </c>
       <c r="E274" t="s">
         <v>2661</v>
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E275" t="s">
         <v>2661</v>
@@ -13058,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E276" t="s">
         <v>2661</v>
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E277" t="s">
         <v>2661</v>
@@ -13092,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E278" t="s">
         <v>2661</v>
@@ -13109,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E279" t="s">
         <v>2661</v>
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E280" t="s">
         <v>2661</v>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>55.75</v>
+        <v>55.25</v>
       </c>
       <c r="E287" t="s">
         <v>2661</v>
@@ -13262,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>55.75</v>
+        <v>55.25</v>
       </c>
       <c r="E288" t="s">
         <v>2661</v>
@@ -13279,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>55.75</v>
+        <v>55.25</v>
       </c>
       <c r="E289" t="s">
         <v>2661</v>
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>55.75</v>
+        <v>55.25</v>
       </c>
       <c r="E290" t="s">
         <v>2661</v>
@@ -13313,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>71</v>
+        <v>70.75</v>
       </c>
       <c r="E291" t="s">
         <v>2661</v>
@@ -13330,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>70.25</v>
+        <v>70</v>
       </c>
       <c r="E292" t="s">
         <v>2661</v>
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>71.75</v>
+        <v>71.5</v>
       </c>
       <c r="E293" t="s">
         <v>2661</v>
@@ -13755,7 +13755,7 @@
         <v>3</v>
       </c>
       <c r="D317">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E317" t="s">
         <v>2662</v>
@@ -13772,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>2280</v>
+        <v>2268</v>
       </c>
       <c r="E318" t="s">
         <v>2661</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>437.25</v>
+        <v>434.75</v>
       </c>
       <c r="E331" t="s">
         <v>2661</v>
@@ -14078,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>52.75</v>
+        <v>52.5</v>
       </c>
       <c r="E336" t="s">
         <v>2661</v>
@@ -14112,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="D338">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E338" t="s">
         <v>2661</v>
@@ -14129,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>53.25</v>
+        <v>53</v>
       </c>
       <c r="E339" t="s">
         <v>2661</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>38.5</v>
+        <v>38.25</v>
       </c>
       <c r="E340" t="s">
         <v>2661</v>
@@ -14622,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>53.25</v>
+        <v>53</v>
       </c>
       <c r="E368" t="s">
         <v>2661</v>
@@ -14639,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="D369">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E369" t="s">
         <v>2661</v>
@@ -14656,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E370" t="s">
         <v>2661</v>
@@ -14673,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="D371">
-        <v>53.25</v>
+        <v>52.75</v>
       </c>
       <c r="E371" t="s">
         <v>2661</v>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="D381">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
       <c r="E381" t="s">
         <v>2661</v>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="D382">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E382" t="s">
         <v>2661</v>
@@ -14877,7 +14877,7 @@
         <v>1</v>
       </c>
       <c r="D383">
-        <v>52.75</v>
+        <v>52.25</v>
       </c>
       <c r="E383" t="s">
         <v>2661</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>36.25</v>
+        <v>36</v>
       </c>
       <c r="E390" t="s">
         <v>2661</v>
@@ -15013,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>36.25</v>
+        <v>36</v>
       </c>
       <c r="E391" t="s">
         <v>2661</v>
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>70</v>
+        <v>69.75</v>
       </c>
       <c r="E394" t="s">
         <v>2661</v>
@@ -15132,7 +15132,7 @@
         <v>5</v>
       </c>
       <c r="D398">
-        <v>208.5</v>
+        <v>207.5</v>
       </c>
       <c r="E398" t="s">
         <v>2661</v>
@@ -15149,7 +15149,7 @@
         <v>5</v>
       </c>
       <c r="D399">
-        <v>206.75</v>
+        <v>206</v>
       </c>
       <c r="E399" t="s">
         <v>2661</v>
@@ -15166,7 +15166,7 @@
         <v>5</v>
       </c>
       <c r="D400">
-        <v>206.75</v>
+        <v>206</v>
       </c>
       <c r="E400" t="s">
         <v>2661</v>
@@ -15183,7 +15183,7 @@
         <v>5</v>
       </c>
       <c r="D401">
-        <v>206.75</v>
+        <v>206</v>
       </c>
       <c r="E401" t="s">
         <v>2661</v>
@@ -15200,7 +15200,7 @@
         <v>5</v>
       </c>
       <c r="D402">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E402" t="s">
         <v>2661</v>
@@ -15217,7 +15217,7 @@
         <v>5</v>
       </c>
       <c r="D403">
-        <v>206.75</v>
+        <v>206</v>
       </c>
       <c r="E403" t="s">
         <v>2661</v>
@@ -15234,7 +15234,7 @@
         <v>5</v>
       </c>
       <c r="D404">
-        <v>206.75</v>
+        <v>206</v>
       </c>
       <c r="E404" t="s">
         <v>2661</v>
@@ -15523,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="D421">
-        <v>704.75</v>
+        <v>704.5</v>
       </c>
       <c r="E421" t="s">
         <v>2661</v>
@@ -15642,7 +15642,7 @@
         <v>3</v>
       </c>
       <c r="D428">
-        <v>23.5</v>
+        <v>23.25</v>
       </c>
       <c r="E428" t="s">
         <v>2662</v>
@@ -15659,7 +15659,7 @@
         <v>1</v>
       </c>
       <c r="D429">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E429" t="s">
         <v>2661</v>
@@ -16118,7 +16118,7 @@
         <v>3</v>
       </c>
       <c r="D456">
-        <v>905.5</v>
+        <v>898.25</v>
       </c>
       <c r="E456" t="s">
         <v>2662</v>
@@ -16135,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>10866</v>
+        <v>10779</v>
       </c>
       <c r="E457" t="s">
         <v>2661</v>
@@ -16152,7 +16152,7 @@
         <v>3</v>
       </c>
       <c r="D458">
-        <v>877.5</v>
+        <v>871.25</v>
       </c>
       <c r="E458" t="s">
         <v>2661</v>
@@ -16169,7 +16169,7 @@
         <v>3</v>
       </c>
       <c r="D459">
-        <v>822.5</v>
+        <v>819</v>
       </c>
       <c r="E459" t="s">
         <v>2661</v>
@@ -16186,7 +16186,7 @@
         <v>3</v>
       </c>
       <c r="D460">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E460" t="s">
         <v>2662</v>
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>8230</v>
+        <v>8190</v>
       </c>
       <c r="E461" t="s">
         <v>2661</v>
@@ -16220,7 +16220,7 @@
         <v>3</v>
       </c>
       <c r="D462">
-        <v>391.3229553809236</v>
+        <v>387</v>
       </c>
       <c r="E462" t="s">
         <v>2662</v>
@@ -16237,7 +16237,7 @@
         <v>1</v>
       </c>
       <c r="D463">
-        <v>4695.875464571083</v>
+        <v>4644</v>
       </c>
       <c r="E463" t="s">
         <v>2661</v>
@@ -16254,7 +16254,7 @@
         <v>3</v>
       </c>
       <c r="D464">
-        <v>388.6627128830366</v>
+        <v>386.25</v>
       </c>
       <c r="E464" t="s">
         <v>2662</v>
@@ -16271,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>4663.95255459644</v>
+        <v>4635</v>
       </c>
       <c r="E465" t="s">
         <v>2661</v>
@@ -16356,7 +16356,7 @@
         <v>1</v>
       </c>
       <c r="D470">
-        <v>654.25</v>
+        <v>652.25</v>
       </c>
       <c r="E470" t="s">
         <v>2661</v>
@@ -16373,7 +16373,7 @@
         <v>1</v>
       </c>
       <c r="D471">
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="E471" t="s">
         <v>2661</v>
@@ -17138,7 +17138,7 @@
         <v>3</v>
       </c>
       <c r="D516">
-        <v>124.75</v>
+        <v>124</v>
       </c>
       <c r="E516" t="s">
         <v>2662</v>
@@ -17155,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="D517">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E517" t="s">
         <v>2661</v>
@@ -17512,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="D538">
-        <v>56</v>
+        <v>55.75</v>
       </c>
       <c r="E538" t="s">
         <v>2661</v>
@@ -17886,7 +17886,7 @@
         <v>5</v>
       </c>
       <c r="D560">
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="E560" t="s">
         <v>2661</v>
@@ -17903,7 +17903,7 @@
         <v>5</v>
       </c>
       <c r="D561">
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="E561" t="s">
         <v>2661</v>
@@ -17988,7 +17988,7 @@
         <v>332</v>
       </c>
       <c r="D566">
-        <v>1134.928153087545</v>
+        <v>1139</v>
       </c>
       <c r="E566" t="s">
         <v>2662</v>
@@ -18005,7 +18005,7 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>4539.71261235018</v>
+        <v>4556</v>
       </c>
       <c r="E567" t="s">
         <v>2661</v>
@@ -18022,7 +18022,7 @@
         <v>332</v>
       </c>
       <c r="D568">
-        <v>1098</v>
+        <v>1096.5</v>
       </c>
       <c r="E568" t="s">
         <v>2662</v>
@@ -18039,7 +18039,7 @@
         <v>1</v>
       </c>
       <c r="D569">
-        <v>4392</v>
+        <v>4386</v>
       </c>
       <c r="E569" t="s">
         <v>2661</v>
@@ -18056,7 +18056,7 @@
         <v>332</v>
       </c>
       <c r="D570">
-        <v>1124.184166666667</v>
+        <v>1122.5</v>
       </c>
       <c r="E570" t="s">
         <v>2662</v>
@@ -18073,7 +18073,7 @@
         <v>1</v>
       </c>
       <c r="D571">
-        <v>4496.736666666667</v>
+        <v>4490</v>
       </c>
       <c r="E571" t="s">
         <v>2661</v>
@@ -18090,7 +18090,7 @@
         <v>332</v>
       </c>
       <c r="D572">
-        <v>1280.25</v>
+        <v>1280</v>
       </c>
       <c r="E572" t="s">
         <v>2662</v>
@@ -18107,7 +18107,7 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="E573" t="s">
         <v>2661</v>
@@ -18158,7 +18158,7 @@
         <v>332</v>
       </c>
       <c r="D576">
-        <v>74.56122105878006</v>
+        <v>74.25</v>
       </c>
       <c r="E576" t="s">
         <v>2662</v>
@@ -18175,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="D577">
-        <v>1864.030526469502</v>
+        <v>1856.25</v>
       </c>
       <c r="E577" t="s">
         <v>2661</v>
@@ -18192,7 +18192,7 @@
         <v>332</v>
       </c>
       <c r="D578">
-        <v>62.25</v>
+        <v>62</v>
       </c>
       <c r="E578" t="s">
         <v>2662</v>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="D579">
-        <v>1556.25</v>
+        <v>1550</v>
       </c>
       <c r="E579" t="s">
         <v>2661</v>
@@ -18226,7 +18226,7 @@
         <v>332</v>
       </c>
       <c r="D580">
-        <v>74.71678364512695</v>
+        <v>74.5</v>
       </c>
       <c r="E580" t="s">
         <v>2662</v>
@@ -18243,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="D581">
-        <v>1867.919591128174</v>
+        <v>1862.5</v>
       </c>
       <c r="E581" t="s">
         <v>2661</v>
@@ -18430,7 +18430,7 @@
         <v>332</v>
       </c>
       <c r="D592">
-        <v>1233.3025</v>
+        <v>1225.25</v>
       </c>
       <c r="E592" t="s">
         <v>2662</v>
@@ -18447,7 +18447,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>4933.21</v>
+        <v>4901</v>
       </c>
       <c r="E593" t="s">
         <v>2661</v>
@@ -18464,7 +18464,7 @@
         <v>332</v>
       </c>
       <c r="D594">
-        <v>1241.166785429965</v>
+        <v>1236.75</v>
       </c>
       <c r="E594" t="s">
         <v>2662</v>
@@ -18481,7 +18481,7 @@
         <v>1</v>
       </c>
       <c r="D595">
-        <v>4964.66714171986</v>
+        <v>4947</v>
       </c>
       <c r="E595" t="s">
         <v>2661</v>
@@ -18498,7 +18498,7 @@
         <v>332</v>
       </c>
       <c r="D596">
-        <v>1238.345421448085</v>
+        <v>1234.5</v>
       </c>
       <c r="E596" t="s">
         <v>2662</v>
@@ -18515,7 +18515,7 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <v>4953.381685792339</v>
+        <v>4938</v>
       </c>
       <c r="E597" t="s">
         <v>2661</v>
@@ -18532,7 +18532,7 @@
         <v>332</v>
       </c>
       <c r="D598">
-        <v>1455.5</v>
+        <v>1451.75</v>
       </c>
       <c r="E598" t="s">
         <v>2662</v>
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="D599">
-        <v>5822</v>
+        <v>5807</v>
       </c>
       <c r="E599" t="s">
         <v>2661</v>
@@ -18566,7 +18566,7 @@
         <v>332</v>
       </c>
       <c r="D600">
-        <v>71.25</v>
+        <v>71</v>
       </c>
       <c r="E600" t="s">
         <v>2662</v>
@@ -18583,7 +18583,7 @@
         <v>1</v>
       </c>
       <c r="D601">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="E601" t="s">
         <v>2661</v>
@@ -19450,7 +19450,7 @@
         <v>23</v>
       </c>
       <c r="D652">
-        <v>56.5</v>
+        <v>56.25</v>
       </c>
       <c r="E652" t="s">
         <v>2662</v>
@@ -19467,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="D653">
-        <v>339</v>
+        <v>337.5</v>
       </c>
       <c r="E653" t="s">
         <v>2661</v>
@@ -20130,7 +20130,7 @@
         <v>23</v>
       </c>
       <c r="D692">
-        <v>58</v>
+        <v>58.25</v>
       </c>
       <c r="E692" t="s">
         <v>2662</v>
@@ -20147,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="D693">
-        <v>2784</v>
+        <v>2796</v>
       </c>
       <c r="E693" t="s">
         <v>2661</v>
@@ -20334,7 +20334,7 @@
         <v>3</v>
       </c>
       <c r="D704">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="E704" t="s">
         <v>2662</v>
@@ -20351,7 +20351,7 @@
         <v>1</v>
       </c>
       <c r="D705">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E705" t="s">
         <v>2661</v>
@@ -20368,7 +20368,7 @@
         <v>3</v>
       </c>
       <c r="D706">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="E706" t="s">
         <v>2662</v>
@@ -20385,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="D707">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E707" t="s">
         <v>2661</v>
@@ -21303,7 +21303,7 @@
         <v>332</v>
       </c>
       <c r="D761">
-        <v>306.5</v>
+        <v>306.25</v>
       </c>
       <c r="E761" t="s">
         <v>2662</v>
@@ -21320,7 +21320,7 @@
         <v>1</v>
       </c>
       <c r="D762">
-        <v>3065</v>
+        <v>3062.5</v>
       </c>
       <c r="E762" t="s">
         <v>2661</v>
@@ -21337,7 +21337,7 @@
         <v>332</v>
       </c>
       <c r="D763">
-        <v>742.5</v>
+        <v>740</v>
       </c>
       <c r="E763" t="s">
         <v>2662</v>
@@ -21354,7 +21354,7 @@
         <v>1</v>
       </c>
       <c r="D764">
-        <v>7425</v>
+        <v>7400</v>
       </c>
       <c r="E764" t="s">
         <v>2661</v>
@@ -21388,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="D766">
-        <v>203.25</v>
+        <v>201.75</v>
       </c>
       <c r="E766" t="s">
         <v>2661</v>
@@ -21830,7 +21830,7 @@
         <v>2</v>
       </c>
       <c r="D792">
-        <v>75.5</v>
+        <v>76</v>
       </c>
       <c r="E792" t="s">
         <v>2662</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="D793">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E793" t="s">
         <v>2661</v>
@@ -22000,7 +22000,7 @@
         <v>2</v>
       </c>
       <c r="D802">
-        <v>136.6306229578929</v>
+        <v>136.75</v>
       </c>
       <c r="E802" t="s">
         <v>2661</v>
@@ -22017,7 +22017,7 @@
         <v>2</v>
       </c>
       <c r="D803">
-        <v>136.2127659574468</v>
+        <v>136.25</v>
       </c>
       <c r="E803" t="s">
         <v>2661</v>
@@ -22034,7 +22034,7 @@
         <v>2</v>
       </c>
       <c r="D804">
-        <v>136.2127659574468</v>
+        <v>136.25</v>
       </c>
       <c r="E804" t="s">
         <v>2661</v>
@@ -22051,7 +22051,7 @@
         <v>2</v>
       </c>
       <c r="D805">
-        <v>136.2127659574468</v>
+        <v>136.25</v>
       </c>
       <c r="E805" t="s">
         <v>2661</v>
@@ -22204,7 +22204,7 @@
         <v>3</v>
       </c>
       <c r="D814">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E814" t="s">
         <v>2662</v>
@@ -22221,7 +22221,7 @@
         <v>1</v>
       </c>
       <c r="D815">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E815" t="s">
         <v>2661</v>
@@ -22238,7 +22238,7 @@
         <v>3</v>
       </c>
       <c r="D816">
-        <v>38.25</v>
+        <v>38</v>
       </c>
       <c r="E816" t="s">
         <v>2662</v>
@@ -22255,7 +22255,7 @@
         <v>1</v>
       </c>
       <c r="D817">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E817" t="s">
         <v>2661</v>
@@ -23054,7 +23054,7 @@
         <v>1</v>
       </c>
       <c r="D864">
-        <v>182</v>
+        <v>181.75</v>
       </c>
       <c r="E864" t="s">
         <v>2661</v>
@@ -23700,7 +23700,7 @@
         <v>3</v>
       </c>
       <c r="D902">
-        <v>54.5</v>
+        <v>54.25</v>
       </c>
       <c r="E902" t="s">
         <v>2662</v>
@@ -23717,7 +23717,7 @@
         <v>1</v>
       </c>
       <c r="D903">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E903" t="s">
         <v>2661</v>
@@ -23802,7 +23802,7 @@
         <v>1</v>
       </c>
       <c r="D908">
-        <v>649.6656171670558</v>
+        <v>649.75</v>
       </c>
       <c r="E908" t="s">
         <v>2661</v>
@@ -23921,7 +23921,7 @@
         <v>2</v>
       </c>
       <c r="D915">
-        <v>203.6433333333333</v>
+        <v>203.5</v>
       </c>
       <c r="E915" t="s">
         <v>2662</v>
@@ -23938,7 +23938,7 @@
         <v>1</v>
       </c>
       <c r="D916">
-        <v>1629.146666666667</v>
+        <v>1628</v>
       </c>
       <c r="E916" t="s">
         <v>2661</v>
@@ -23989,7 +23989,7 @@
         <v>2</v>
       </c>
       <c r="D919">
-        <v>202.1508333333333</v>
+        <v>202.25</v>
       </c>
       <c r="E919" t="s">
         <v>2662</v>
@@ -24006,7 +24006,7 @@
         <v>1</v>
       </c>
       <c r="D920">
-        <v>1617.206666666666</v>
+        <v>1618</v>
       </c>
       <c r="E920" t="s">
         <v>2661</v>
@@ -24023,7 +24023,7 @@
         <v>2</v>
       </c>
       <c r="D921">
-        <v>144.7725</v>
+        <v>144.25</v>
       </c>
       <c r="E921" t="s">
         <v>2662</v>
@@ -24040,7 +24040,7 @@
         <v>1</v>
       </c>
       <c r="D922">
-        <v>2316.36</v>
+        <v>2308</v>
       </c>
       <c r="E922" t="s">
         <v>2661</v>
@@ -24057,7 +24057,7 @@
         <v>2</v>
       </c>
       <c r="D923">
-        <v>145.02125</v>
+        <v>145.25</v>
       </c>
       <c r="E923" t="s">
         <v>2662</v>
@@ -24074,7 +24074,7 @@
         <v>1</v>
       </c>
       <c r="D924">
-        <v>2320.34</v>
+        <v>2324</v>
       </c>
       <c r="E924" t="s">
         <v>2661</v>
@@ -24091,7 +24091,7 @@
         <v>2</v>
       </c>
       <c r="D925">
-        <v>204.22375</v>
+        <v>204</v>
       </c>
       <c r="E925" t="s">
         <v>2662</v>
@@ -24108,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="D926">
-        <v>1633.79</v>
+        <v>1632</v>
       </c>
       <c r="E926" t="s">
         <v>2661</v>
@@ -24329,7 +24329,7 @@
         <v>2</v>
       </c>
       <c r="D939">
-        <v>174</v>
+        <v>173.5</v>
       </c>
       <c r="E939" t="s">
         <v>2662</v>
@@ -24346,7 +24346,7 @@
         <v>1</v>
       </c>
       <c r="D940">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="E940" t="s">
         <v>2661</v>
@@ -24618,7 +24618,7 @@
         <v>23</v>
       </c>
       <c r="D956">
-        <v>140</v>
+        <v>139.5</v>
       </c>
       <c r="E956" t="s">
         <v>2662</v>
@@ -24635,7 +24635,7 @@
         <v>2</v>
       </c>
       <c r="D957">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E957" t="s">
         <v>2661</v>
@@ -24652,7 +24652,7 @@
         <v>1</v>
       </c>
       <c r="D958">
-        <v>3360</v>
+        <v>3348</v>
       </c>
       <c r="E958" t="s">
         <v>2661</v>
@@ -24669,7 +24669,7 @@
         <v>23</v>
       </c>
       <c r="D959">
-        <v>141.5</v>
+        <v>141</v>
       </c>
       <c r="E959" t="s">
         <v>2662</v>
@@ -24686,7 +24686,7 @@
         <v>2</v>
       </c>
       <c r="D960">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E960" t="s">
         <v>2661</v>
@@ -24703,7 +24703,7 @@
         <v>1</v>
       </c>
       <c r="D961">
-        <v>3396</v>
+        <v>3384</v>
       </c>
       <c r="E961" t="s">
         <v>2661</v>
@@ -25128,7 +25128,7 @@
         <v>1</v>
       </c>
       <c r="D986">
-        <v>170.25</v>
+        <v>170.5</v>
       </c>
       <c r="E986" t="s">
         <v>2661</v>
@@ -26301,7 +26301,7 @@
         <v>3</v>
       </c>
       <c r="D1055">
-        <v>840.25</v>
+        <v>819.75</v>
       </c>
       <c r="E1055" t="s">
         <v>2662</v>
@@ -26318,7 +26318,7 @@
         <v>1</v>
       </c>
       <c r="D1056">
-        <v>5041.5</v>
+        <v>4918.5</v>
       </c>
       <c r="E1056" t="s">
         <v>2661</v>
@@ -26352,7 +26352,7 @@
         <v>2</v>
       </c>
       <c r="D1058">
-        <v>463.5</v>
+        <v>464.75</v>
       </c>
       <c r="E1058" t="s">
         <v>2661</v>
@@ -26386,7 +26386,7 @@
         <v>2</v>
       </c>
       <c r="D1060">
-        <v>524.75</v>
+        <v>528.25</v>
       </c>
       <c r="E1060" t="s">
         <v>2661</v>
@@ -26403,7 +26403,7 @@
         <v>68</v>
       </c>
       <c r="D1061">
-        <v>130.25</v>
+        <v>130.5</v>
       </c>
       <c r="E1061" t="s">
         <v>2662</v>
@@ -26420,7 +26420,7 @@
         <v>3</v>
       </c>
       <c r="D1062">
-        <v>260.5</v>
+        <v>261</v>
       </c>
       <c r="E1062" t="s">
         <v>2661</v>
@@ -26437,7 +26437,7 @@
         <v>1</v>
       </c>
       <c r="D1063">
-        <v>3126</v>
+        <v>3132</v>
       </c>
       <c r="E1063" t="s">
         <v>2661</v>
@@ -26556,7 +26556,7 @@
         <v>2</v>
       </c>
       <c r="D1070">
-        <v>124.25</v>
+        <v>123.5</v>
       </c>
       <c r="E1070" t="s">
         <v>2661</v>
@@ -26692,7 +26692,7 @@
         <v>1</v>
       </c>
       <c r="D1078">
-        <v>89.5</v>
+        <v>89.25</v>
       </c>
       <c r="E1078" t="s">
         <v>2661</v>
@@ -26913,7 +26913,7 @@
         <v>2</v>
       </c>
       <c r="D1091">
-        <v>556.75</v>
+        <v>553.5</v>
       </c>
       <c r="E1091" t="s">
         <v>2661</v>
@@ -26930,7 +26930,7 @@
         <v>2</v>
       </c>
       <c r="D1092">
-        <v>491.25</v>
+        <v>478.5</v>
       </c>
       <c r="E1092" t="s">
         <v>2661</v>
@@ -26964,7 +26964,7 @@
         <v>2</v>
       </c>
       <c r="D1094">
-        <v>491.25</v>
+        <v>484.25</v>
       </c>
       <c r="E1094" t="s">
         <v>2661</v>
@@ -26981,7 +26981,7 @@
         <v>2</v>
       </c>
       <c r="D1095">
-        <v>577.75</v>
+        <v>572.25</v>
       </c>
       <c r="E1095" t="s">
         <v>2661</v>
@@ -27015,7 +27015,7 @@
         <v>2</v>
       </c>
       <c r="D1097">
-        <v>450.5723204994797</v>
+        <v>449.5</v>
       </c>
       <c r="E1097" t="s">
         <v>2661</v>
@@ -27049,7 +27049,7 @@
         <v>2</v>
       </c>
       <c r="D1099">
-        <v>450.5723204994797</v>
+        <v>449.5</v>
       </c>
       <c r="E1099" t="s">
         <v>2661</v>
@@ -27100,7 +27100,7 @@
         <v>2</v>
       </c>
       <c r="D1102">
-        <v>442.25</v>
+        <v>441</v>
       </c>
       <c r="E1102" t="s">
         <v>2661</v>
@@ -27134,7 +27134,7 @@
         <v>2</v>
       </c>
       <c r="D1104">
-        <v>491.25</v>
+        <v>476</v>
       </c>
       <c r="E1104" t="s">
         <v>2661</v>
@@ -27151,7 +27151,7 @@
         <v>2</v>
       </c>
       <c r="D1105">
-        <v>536</v>
+        <v>534.5</v>
       </c>
       <c r="E1105" t="s">
         <v>2661</v>
@@ -27168,7 +27168,7 @@
         <v>2</v>
       </c>
       <c r="D1106">
-        <v>465.25</v>
+        <v>463.75</v>
       </c>
       <c r="E1106" t="s">
         <v>2661</v>
@@ -27661,7 +27661,7 @@
         <v>5</v>
       </c>
       <c r="D1135">
-        <v>209</v>
+        <v>208.75</v>
       </c>
       <c r="E1135" t="s">
         <v>2661</v>
@@ -27712,7 +27712,7 @@
         <v>5</v>
       </c>
       <c r="D1138">
-        <v>209</v>
+        <v>208.75</v>
       </c>
       <c r="E1138" t="s">
         <v>2661</v>
@@ -27729,7 +27729,7 @@
         <v>5</v>
       </c>
       <c r="D1139">
-        <v>209</v>
+        <v>208.75</v>
       </c>
       <c r="E1139" t="s">
         <v>2661</v>
@@ -27746,7 +27746,7 @@
         <v>5</v>
       </c>
       <c r="D1140">
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="E1140" t="s">
         <v>2661</v>
@@ -28018,7 +28018,7 @@
         <v>1</v>
       </c>
       <c r="D1156">
-        <v>186.25</v>
+        <v>186</v>
       </c>
       <c r="E1156" t="s">
         <v>2661</v>
@@ -28035,7 +28035,7 @@
         <v>1</v>
       </c>
       <c r="D1157">
-        <v>186.25</v>
+        <v>186</v>
       </c>
       <c r="E1157" t="s">
         <v>2661</v>
@@ -28069,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="D1159">
-        <v>250.75</v>
+        <v>250</v>
       </c>
       <c r="E1159" t="s">
         <v>2661</v>
@@ -28086,7 +28086,7 @@
         <v>1</v>
       </c>
       <c r="D1160">
-        <v>250.75</v>
+        <v>250</v>
       </c>
       <c r="E1160" t="s">
         <v>2661</v>
@@ -28103,7 +28103,7 @@
         <v>1</v>
       </c>
       <c r="D1161">
-        <v>250.75</v>
+        <v>250</v>
       </c>
       <c r="E1161" t="s">
         <v>2661</v>
@@ -28120,7 +28120,7 @@
         <v>1</v>
       </c>
       <c r="D1162">
-        <v>250.75</v>
+        <v>250</v>
       </c>
       <c r="E1162" t="s">
         <v>2661</v>
@@ -28137,7 +28137,7 @@
         <v>1</v>
       </c>
       <c r="D1163">
-        <v>250.75</v>
+        <v>250</v>
       </c>
       <c r="E1163" t="s">
         <v>2661</v>
@@ -28188,7 +28188,7 @@
         <v>1</v>
       </c>
       <c r="D1166">
-        <v>130.75</v>
+        <v>129.75</v>
       </c>
       <c r="E1166" t="s">
         <v>2661</v>
@@ -28341,7 +28341,7 @@
         <v>3</v>
       </c>
       <c r="D1175">
-        <v>37.25</v>
+        <v>37</v>
       </c>
       <c r="E1175" t="s">
         <v>2662</v>
@@ -28358,7 +28358,7 @@
         <v>1</v>
       </c>
       <c r="D1176">
-        <v>223.5</v>
+        <v>222</v>
       </c>
       <c r="E1176" t="s">
         <v>2661</v>
@@ -28409,7 +28409,7 @@
         <v>3</v>
       </c>
       <c r="D1179">
-        <v>400</v>
+        <v>398.5</v>
       </c>
       <c r="E1179" t="s">
         <v>2662</v>
@@ -28426,7 +28426,7 @@
         <v>1</v>
       </c>
       <c r="D1180">
-        <v>4800</v>
+        <v>4782</v>
       </c>
       <c r="E1180" t="s">
         <v>2661</v>
@@ -29463,7 +29463,7 @@
         <v>12</v>
       </c>
       <c r="D1241">
-        <v>1025</v>
+        <v>1024.5</v>
       </c>
       <c r="E1241" t="s">
         <v>2661</v>
@@ -29480,7 +29480,7 @@
         <v>1</v>
       </c>
       <c r="D1242">
-        <v>982.31375</v>
+        <v>982.5</v>
       </c>
       <c r="E1242" t="s">
         <v>2661</v>
@@ -30160,7 +30160,7 @@
         <v>332</v>
       </c>
       <c r="D1282">
-        <v>802.7847460104058</v>
+        <v>800.75</v>
       </c>
       <c r="E1282" t="s">
         <v>2662</v>
@@ -30177,7 +30177,7 @@
         <v>1</v>
       </c>
       <c r="D1283">
-        <v>3211.138984041623</v>
+        <v>3203</v>
       </c>
       <c r="E1283" t="s">
         <v>2661</v>
@@ -30194,7 +30194,7 @@
         <v>332</v>
       </c>
       <c r="D1284">
-        <v>791.025</v>
+        <v>789.75</v>
       </c>
       <c r="E1284" t="s">
         <v>2662</v>
@@ -30211,7 +30211,7 @@
         <v>1</v>
       </c>
       <c r="D1285">
-        <v>3164.1</v>
+        <v>3159</v>
       </c>
       <c r="E1285" t="s">
         <v>2661</v>
@@ -30228,7 +30228,7 @@
         <v>332</v>
       </c>
       <c r="D1286">
-        <v>799.5</v>
+        <v>798.5</v>
       </c>
       <c r="E1286" t="s">
         <v>2662</v>
@@ -30245,7 +30245,7 @@
         <v>1</v>
       </c>
       <c r="D1287">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="E1287" t="s">
         <v>2661</v>
@@ -30262,7 +30262,7 @@
         <v>332</v>
       </c>
       <c r="D1288">
-        <v>905.25</v>
+        <v>901.75</v>
       </c>
       <c r="E1288" t="s">
         <v>2662</v>
@@ -30279,7 +30279,7 @@
         <v>1</v>
       </c>
       <c r="D1289">
-        <v>3621</v>
+        <v>3607</v>
       </c>
       <c r="E1289" t="s">
         <v>2661</v>
@@ -30398,7 +30398,7 @@
         <v>1</v>
       </c>
       <c r="D1296">
-        <v>671.5</v>
+        <v>669.5</v>
       </c>
       <c r="E1296" t="s">
         <v>2661</v>
@@ -30466,7 +30466,7 @@
         <v>4</v>
       </c>
       <c r="D1300">
-        <v>197.75</v>
+        <v>197.5</v>
       </c>
       <c r="E1300" t="s">
         <v>2662</v>
@@ -30483,7 +30483,7 @@
         <v>1</v>
       </c>
       <c r="D1301">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="E1301" t="s">
         <v>2661</v>
@@ -30619,7 +30619,7 @@
         <v>3</v>
       </c>
       <c r="D1309">
-        <v>47.68539062128134</v>
+        <v>47.75</v>
       </c>
       <c r="E1309" t="s">
         <v>2662</v>
@@ -30636,7 +30636,7 @@
         <v>1</v>
       </c>
       <c r="D1310">
-        <v>381.4831249702507</v>
+        <v>382</v>
       </c>
       <c r="E1310" t="s">
         <v>2661</v>
@@ -30687,7 +30687,7 @@
         <v>3</v>
       </c>
       <c r="D1313">
-        <v>47.4906157411889</v>
+        <v>47.5</v>
       </c>
       <c r="E1313" t="s">
         <v>2662</v>
@@ -30704,7 +30704,7 @@
         <v>1</v>
       </c>
       <c r="D1314">
-        <v>379.9249259295112</v>
+        <v>380</v>
       </c>
       <c r="E1314" t="s">
         <v>2661</v>
@@ -30721,7 +30721,7 @@
         <v>3</v>
       </c>
       <c r="D1315">
-        <v>47.36329072051899</v>
+        <v>47.5</v>
       </c>
       <c r="E1315" t="s">
         <v>2662</v>
@@ -30738,7 +30738,7 @@
         <v>1</v>
       </c>
       <c r="D1316">
-        <v>378.9063257641519</v>
+        <v>380</v>
       </c>
       <c r="E1316" t="s">
         <v>2661</v>
@@ -30755,7 +30755,7 @@
         <v>3</v>
       </c>
       <c r="D1317">
-        <v>47.52127495130444</v>
+        <v>47.75</v>
       </c>
       <c r="E1317" t="s">
         <v>2662</v>
@@ -30772,7 +30772,7 @@
         <v>1</v>
       </c>
       <c r="D1318">
-        <v>380.1701996104355</v>
+        <v>382</v>
       </c>
       <c r="E1318" t="s">
         <v>2661</v>
@@ -30789,7 +30789,7 @@
         <v>3</v>
       </c>
       <c r="D1319">
-        <v>47.36766705366426</v>
+        <v>47.5</v>
       </c>
       <c r="E1319" t="s">
         <v>2662</v>
@@ -30806,7 +30806,7 @@
         <v>1</v>
       </c>
       <c r="D1320">
-        <v>378.941336429314</v>
+        <v>380</v>
       </c>
       <c r="E1320" t="s">
         <v>2661</v>
@@ -31503,7 +31503,7 @@
         <v>32</v>
       </c>
       <c r="D1361">
-        <v>20.5</v>
+        <v>20.25</v>
       </c>
       <c r="E1361" t="s">
         <v>2662</v>
@@ -31520,7 +31520,7 @@
         <v>1</v>
       </c>
       <c r="D1362">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="E1362" t="s">
         <v>2661</v>
@@ -31537,7 +31537,7 @@
         <v>32</v>
       </c>
       <c r="D1363">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="E1363" t="s">
         <v>2662</v>
@@ -31554,7 +31554,7 @@
         <v>1</v>
       </c>
       <c r="D1364">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="E1364" t="s">
         <v>2661</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="D1393">
-        <v>270.75</v>
+        <v>270.25</v>
       </c>
       <c r="E1393" t="s">
         <v>2661</v>
@@ -32778,7 +32778,7 @@
         <v>1</v>
       </c>
       <c r="D1436">
-        <v>33.5</v>
+        <v>33.25</v>
       </c>
       <c r="E1436" t="s">
         <v>2661</v>
@@ -32795,7 +32795,7 @@
         <v>1</v>
       </c>
       <c r="D1437">
-        <v>34</v>
+        <v>33.75</v>
       </c>
       <c r="E1437" t="s">
         <v>2661</v>
@@ -33322,7 +33322,7 @@
         <v>7</v>
       </c>
       <c r="D1468">
-        <v>131.25</v>
+        <v>130.75</v>
       </c>
       <c r="E1468" t="s">
         <v>2662</v>
@@ -33339,7 +33339,7 @@
         <v>1</v>
       </c>
       <c r="D1469">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="E1469" t="s">
         <v>2661</v>
@@ -33390,7 +33390,7 @@
         <v>7</v>
       </c>
       <c r="D1472">
-        <v>193.25</v>
+        <v>193</v>
       </c>
       <c r="E1472" t="s">
         <v>2662</v>
@@ -33407,7 +33407,7 @@
         <v>1</v>
       </c>
       <c r="D1473">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="E1473" t="s">
         <v>2661</v>
@@ -33424,7 +33424,7 @@
         <v>7</v>
       </c>
       <c r="D1474">
-        <v>120.8925</v>
+        <v>120.75</v>
       </c>
       <c r="E1474" t="s">
         <v>2662</v>
@@ -33441,7 +33441,7 @@
         <v>1</v>
       </c>
       <c r="D1475">
-        <v>1450.71</v>
+        <v>1449</v>
       </c>
       <c r="E1475" t="s">
         <v>2661</v>
@@ -33611,7 +33611,7 @@
         <v>7</v>
       </c>
       <c r="D1485">
-        <v>52.25</v>
+        <v>52</v>
       </c>
       <c r="E1485" t="s">
         <v>2662</v>
@@ -33628,7 +33628,7 @@
         <v>1</v>
       </c>
       <c r="D1486">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E1486" t="s">
         <v>2661</v>
@@ -33679,7 +33679,7 @@
         <v>7</v>
       </c>
       <c r="D1489">
-        <v>57.25</v>
+        <v>56.75</v>
       </c>
       <c r="E1489" t="s">
         <v>2662</v>
@@ -33696,7 +33696,7 @@
         <v>1</v>
       </c>
       <c r="D1490">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="E1490" t="s">
         <v>2661</v>
@@ -33815,7 +33815,7 @@
         <v>23</v>
       </c>
       <c r="D1497">
-        <v>46.53567735263702</v>
+        <v>46.75</v>
       </c>
       <c r="E1497" t="s">
         <v>2662</v>
@@ -33832,7 +33832,7 @@
         <v>1</v>
       </c>
       <c r="D1498">
-        <v>2326.783867631851</v>
+        <v>2337.5</v>
       </c>
       <c r="E1498" t="s">
         <v>2661</v>
@@ -33849,7 +33849,7 @@
         <v>23</v>
       </c>
       <c r="D1499">
-        <v>46.53567735263702</v>
+        <v>46.75</v>
       </c>
       <c r="E1499" t="s">
         <v>2662</v>
@@ -33866,7 +33866,7 @@
         <v>1</v>
       </c>
       <c r="D1500">
-        <v>2326.783867631851</v>
+        <v>2337.5</v>
       </c>
       <c r="E1500" t="s">
         <v>2661</v>
@@ -34223,7 +34223,7 @@
         <v>1</v>
       </c>
       <c r="D1521">
-        <v>167.5</v>
+        <v>168.75</v>
       </c>
       <c r="E1521" t="s">
         <v>2661</v>
@@ -34580,7 +34580,7 @@
         <v>3</v>
       </c>
       <c r="D1542">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E1542" t="s">
         <v>2662</v>
@@ -34597,7 +34597,7 @@
         <v>1</v>
       </c>
       <c r="D1543">
-        <v>2388</v>
+        <v>2376</v>
       </c>
       <c r="E1543" t="s">
         <v>2661</v>
@@ -35804,7 +35804,7 @@
         <v>1</v>
       </c>
       <c r="D1614">
-        <v>650.25</v>
+        <v>649.5</v>
       </c>
       <c r="E1614" t="s">
         <v>2661</v>
@@ -36161,7 +36161,7 @@
         <v>11</v>
       </c>
       <c r="D1635">
-        <v>42.75</v>
+        <v>42.5</v>
       </c>
       <c r="E1635" t="s">
         <v>2662</v>
@@ -36178,7 +36178,7 @@
         <v>1</v>
       </c>
       <c r="D1636">
-        <v>2052</v>
+        <v>2040</v>
       </c>
       <c r="E1636" t="s">
         <v>2661</v>
@@ -36195,7 +36195,7 @@
         <v>11</v>
       </c>
       <c r="D1637">
-        <v>32.25</v>
+        <v>32</v>
       </c>
       <c r="E1637" t="s">
         <v>2662</v>
@@ -36212,7 +36212,7 @@
         <v>1</v>
       </c>
       <c r="D1638">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="E1638" t="s">
         <v>2661</v>
@@ -36263,7 +36263,7 @@
         <v>1</v>
       </c>
       <c r="D1641">
-        <v>527.5</v>
+        <v>526.5</v>
       </c>
       <c r="E1641" t="s">
         <v>2661</v>
@@ -37215,7 +37215,7 @@
         <v>7</v>
       </c>
       <c r="D1697">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="E1697" t="s">
         <v>2662</v>
@@ -37232,7 +37232,7 @@
         <v>1</v>
       </c>
       <c r="D1698">
-        <v>2601</v>
+        <v>2592</v>
       </c>
       <c r="E1698" t="s">
         <v>2661</v>
@@ -37487,7 +37487,7 @@
         <v>2</v>
       </c>
       <c r="D1713">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="E1713" t="s">
         <v>2662</v>
@@ -37504,7 +37504,7 @@
         <v>1</v>
       </c>
       <c r="D1714">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E1714" t="s">
         <v>2661</v>
@@ -37555,7 +37555,7 @@
         <v>3</v>
       </c>
       <c r="D1717">
-        <v>19.75</v>
+        <v>19.5</v>
       </c>
       <c r="E1717" t="s">
         <v>2662</v>
@@ -37572,7 +37572,7 @@
         <v>1</v>
       </c>
       <c r="D1718">
-        <v>98.75</v>
+        <v>97.5</v>
       </c>
       <c r="E1718" t="s">
         <v>2661</v>
@@ -37657,7 +37657,7 @@
         <v>2</v>
       </c>
       <c r="D1723">
-        <v>56.25</v>
+        <v>56</v>
       </c>
       <c r="E1723" t="s">
         <v>2662</v>
@@ -37674,7 +37674,7 @@
         <v>1</v>
       </c>
       <c r="D1724">
-        <v>337.5</v>
+        <v>336</v>
       </c>
       <c r="E1724" t="s">
         <v>2661</v>
@@ -37691,7 +37691,7 @@
         <v>2</v>
       </c>
       <c r="D1725">
-        <v>63</v>
+        <v>62.75</v>
       </c>
       <c r="E1725" t="s">
         <v>2662</v>
@@ -37708,7 +37708,7 @@
         <v>1</v>
       </c>
       <c r="D1726">
-        <v>378</v>
+        <v>376.5</v>
       </c>
       <c r="E1726" t="s">
         <v>2661</v>
@@ -37793,7 +37793,7 @@
         <v>5</v>
       </c>
       <c r="D1731">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1731" t="s">
         <v>2661</v>
@@ -37827,7 +37827,7 @@
         <v>5</v>
       </c>
       <c r="D1733">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1733" t="s">
         <v>2661</v>
@@ -37844,7 +37844,7 @@
         <v>5</v>
       </c>
       <c r="D1734">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1734" t="s">
         <v>2661</v>
@@ -37861,7 +37861,7 @@
         <v>5</v>
       </c>
       <c r="D1735">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1735" t="s">
         <v>2661</v>
@@ -37878,7 +37878,7 @@
         <v>5</v>
       </c>
       <c r="D1736">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1736" t="s">
         <v>2661</v>
@@ -37895,7 +37895,7 @@
         <v>5</v>
       </c>
       <c r="D1737">
-        <v>180.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1737" t="s">
         <v>2661</v>
@@ -38048,7 +38048,7 @@
         <v>3</v>
       </c>
       <c r="D1746">
-        <v>19.75</v>
+        <v>19.5</v>
       </c>
       <c r="E1746" t="s">
         <v>2662</v>
@@ -38065,7 +38065,7 @@
         <v>1</v>
       </c>
       <c r="D1747">
-        <v>98.75</v>
+        <v>97.5</v>
       </c>
       <c r="E1747" t="s">
         <v>2661</v>
@@ -38116,7 +38116,7 @@
         <v>1</v>
       </c>
       <c r="D1750">
-        <v>71.5</v>
+        <v>71</v>
       </c>
       <c r="E1750" t="s">
         <v>2661</v>
@@ -38133,7 +38133,7 @@
         <v>1</v>
       </c>
       <c r="D1751">
-        <v>76.5</v>
+        <v>76</v>
       </c>
       <c r="E1751" t="s">
         <v>2661</v>
@@ -38150,7 +38150,7 @@
         <v>3</v>
       </c>
       <c r="D1752">
-        <v>349.5</v>
+        <v>349.75</v>
       </c>
       <c r="E1752" t="s">
         <v>2662</v>
@@ -38167,7 +38167,7 @@
         <v>1</v>
       </c>
       <c r="D1753">
-        <v>2097</v>
+        <v>2098.5</v>
       </c>
       <c r="E1753" t="s">
         <v>2661</v>
@@ -38218,7 +38218,7 @@
         <v>3</v>
       </c>
       <c r="D1756">
-        <v>357.75</v>
+        <v>358.25</v>
       </c>
       <c r="E1756" t="s">
         <v>2662</v>
@@ -38235,7 +38235,7 @@
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>4293</v>
+        <v>4299</v>
       </c>
       <c r="E1757" t="s">
         <v>2661</v>
@@ -38252,7 +38252,7 @@
         <v>3</v>
       </c>
       <c r="D1758">
-        <v>277.8158517481805</v>
+        <v>278</v>
       </c>
       <c r="E1758" t="s">
         <v>2662</v>
@@ -38269,7 +38269,7 @@
         <v>1</v>
       </c>
       <c r="D1759">
-        <v>3333.790220978166</v>
+        <v>3336</v>
       </c>
       <c r="E1759" t="s">
         <v>2661</v>
@@ -38286,7 +38286,7 @@
         <v>1</v>
       </c>
       <c r="D1760">
-        <v>26</v>
+        <v>25.75</v>
       </c>
       <c r="E1760" t="s">
         <v>2661</v>
@@ -38303,7 +38303,7 @@
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="E1761" t="s">
         <v>2661</v>
@@ -38320,7 +38320,7 @@
         <v>1</v>
       </c>
       <c r="D1762">
-        <v>54.75</v>
+        <v>54.5</v>
       </c>
       <c r="E1762" t="s">
         <v>2661</v>
@@ -38337,7 +38337,7 @@
         <v>1</v>
       </c>
       <c r="D1763">
-        <v>54.75</v>
+        <v>54.25</v>
       </c>
       <c r="E1763" t="s">
         <v>2661</v>
@@ -38354,7 +38354,7 @@
         <v>1</v>
       </c>
       <c r="D1764">
-        <v>54.75</v>
+        <v>54.25</v>
       </c>
       <c r="E1764" t="s">
         <v>2661</v>
@@ -38371,7 +38371,7 @@
         <v>1</v>
       </c>
       <c r="D1765">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="E1765" t="s">
         <v>2661</v>
@@ -38388,7 +38388,7 @@
         <v>1</v>
       </c>
       <c r="D1766">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="E1766" t="s">
         <v>2661</v>
@@ -38405,7 +38405,7 @@
         <v>1</v>
       </c>
       <c r="D1767">
-        <v>55</v>
+        <v>54.75</v>
       </c>
       <c r="E1767" t="s">
         <v>2661</v>
@@ -38422,7 +38422,7 @@
         <v>1</v>
       </c>
       <c r="D1768">
-        <v>54.75</v>
+        <v>54.25</v>
       </c>
       <c r="E1768" t="s">
         <v>2661</v>
@@ -38677,7 +38677,7 @@
         <v>23</v>
       </c>
       <c r="D1783">
-        <v>20.75</v>
+        <v>20.5</v>
       </c>
       <c r="E1783" t="s">
         <v>2662</v>
@@ -38694,7 +38694,7 @@
         <v>1</v>
       </c>
       <c r="D1784">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E1784" t="s">
         <v>2661</v>
@@ -38711,7 +38711,7 @@
         <v>23</v>
       </c>
       <c r="D1785">
-        <v>27.75</v>
+        <v>27.5</v>
       </c>
       <c r="E1785" t="s">
         <v>2662</v>
@@ -38728,7 +38728,7 @@
         <v>1</v>
       </c>
       <c r="D1786">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E1786" t="s">
         <v>2661</v>
@@ -39051,7 +39051,7 @@
         <v>1</v>
       </c>
       <c r="D1805">
-        <v>372.75</v>
+        <v>370</v>
       </c>
       <c r="E1805" t="s">
         <v>2661</v>
@@ -39085,7 +39085,7 @@
         <v>1</v>
       </c>
       <c r="D1807">
-        <v>207.5</v>
+        <v>206</v>
       </c>
       <c r="E1807" t="s">
         <v>2661</v>
@@ -39102,7 +39102,7 @@
         <v>1</v>
       </c>
       <c r="D1808">
-        <v>268</v>
+        <v>266.25</v>
       </c>
       <c r="E1808" t="s">
         <v>2661</v>
@@ -39119,7 +39119,7 @@
         <v>1</v>
       </c>
       <c r="D1809">
-        <v>233.75</v>
+        <v>232.5</v>
       </c>
       <c r="E1809" t="s">
         <v>2661</v>
@@ -39136,7 +39136,7 @@
         <v>1</v>
       </c>
       <c r="D1810">
-        <v>211.25</v>
+        <v>210.25</v>
       </c>
       <c r="E1810" t="s">
         <v>2661</v>
@@ -39153,7 +39153,7 @@
         <v>1</v>
       </c>
       <c r="D1811">
-        <v>278.25</v>
+        <v>276</v>
       </c>
       <c r="E1811" t="s">
         <v>2661</v>
@@ -39170,7 +39170,7 @@
         <v>1</v>
       </c>
       <c r="D1812">
-        <v>232.25</v>
+        <v>231.25</v>
       </c>
       <c r="E1812" t="s">
         <v>2661</v>
@@ -39629,7 +39629,7 @@
         <v>68</v>
       </c>
       <c r="D1839">
-        <v>129.75</v>
+        <v>128.75</v>
       </c>
       <c r="E1839" t="s">
         <v>2662</v>
@@ -39646,7 +39646,7 @@
         <v>3</v>
       </c>
       <c r="D1840">
-        <v>259.5</v>
+        <v>257.5</v>
       </c>
       <c r="E1840" t="s">
         <v>2661</v>
@@ -39663,7 +39663,7 @@
         <v>1</v>
       </c>
       <c r="D1841">
-        <v>3114</v>
+        <v>3090</v>
       </c>
       <c r="E1841" t="s">
         <v>2661</v>
@@ -39765,7 +39765,7 @@
         <v>7</v>
       </c>
       <c r="D1847">
-        <v>151.7982222696413</v>
+        <v>152</v>
       </c>
       <c r="E1847" t="s">
         <v>2662</v>
@@ -39782,7 +39782,7 @@
         <v>1</v>
       </c>
       <c r="D1848">
-        <v>758.9911113482066</v>
+        <v>760</v>
       </c>
       <c r="E1848" t="s">
         <v>2661</v>
@@ -39799,7 +39799,7 @@
         <v>7</v>
       </c>
       <c r="D1849">
-        <v>151.7982222696413</v>
+        <v>152</v>
       </c>
       <c r="E1849" t="s">
         <v>2662</v>
@@ -39816,7 +39816,7 @@
         <v>1</v>
       </c>
       <c r="D1850">
-        <v>758.9911113482067</v>
+        <v>760</v>
       </c>
       <c r="E1850" t="s">
         <v>2661</v>
@@ -39901,7 +39901,7 @@
         <v>7</v>
       </c>
       <c r="D1855">
-        <v>171.38875</v>
+        <v>171.5</v>
       </c>
       <c r="E1855" t="s">
         <v>2662</v>
@@ -39918,7 +39918,7 @@
         <v>1</v>
       </c>
       <c r="D1856">
-        <v>2056.665</v>
+        <v>2058</v>
       </c>
       <c r="E1856" t="s">
         <v>2661</v>
@@ -39969,7 +39969,7 @@
         <v>7</v>
       </c>
       <c r="D1859">
-        <v>171.38875</v>
+        <v>171.5</v>
       </c>
       <c r="E1859" t="s">
         <v>2662</v>
@@ -39986,7 +39986,7 @@
         <v>1</v>
       </c>
       <c r="D1860">
-        <v>1713.8875</v>
+        <v>1715</v>
       </c>
       <c r="E1860" t="s">
         <v>2661</v>
@@ -40071,7 +40071,7 @@
         <v>7</v>
       </c>
       <c r="D1865">
-        <v>46.2675</v>
+        <v>46.5</v>
       </c>
       <c r="E1865" t="s">
         <v>2662</v>
@@ -40088,7 +40088,7 @@
         <v>1</v>
       </c>
       <c r="D1866">
-        <v>925.3499999999999</v>
+        <v>930</v>
       </c>
       <c r="E1866" t="s">
         <v>2661</v>
@@ -40360,7 +40360,7 @@
         <v>7</v>
       </c>
       <c r="D1882">
-        <v>110.75</v>
+        <v>110.5</v>
       </c>
       <c r="E1882" t="s">
         <v>2662</v>
@@ -40377,7 +40377,7 @@
         <v>1</v>
       </c>
       <c r="D1883">
-        <v>1882.75</v>
+        <v>1878.5</v>
       </c>
       <c r="E1883" t="s">
         <v>2661</v>
@@ -40445,7 +40445,7 @@
         <v>3</v>
       </c>
       <c r="D1887">
-        <v>41.47467549692741</v>
+        <v>41.5</v>
       </c>
       <c r="E1887" t="s">
         <v>2662</v>
@@ -40462,7 +40462,7 @@
         <v>1</v>
       </c>
       <c r="D1888">
-        <v>497.696105963129</v>
+        <v>498</v>
       </c>
       <c r="E1888" t="s">
         <v>2661</v>
@@ -40479,7 +40479,7 @@
         <v>3</v>
       </c>
       <c r="D1889">
-        <v>41.50028860731016</v>
+        <v>41.75</v>
       </c>
       <c r="E1889" t="s">
         <v>2662</v>
@@ -40496,7 +40496,7 @@
         <v>1</v>
       </c>
       <c r="D1890">
-        <v>498.003463287722</v>
+        <v>501</v>
       </c>
       <c r="E1890" t="s">
         <v>2661</v>
@@ -41329,7 +41329,7 @@
         <v>26</v>
       </c>
       <c r="D1939">
-        <v>325.25</v>
+        <v>322.25</v>
       </c>
       <c r="E1939" t="s">
         <v>2661</v>
@@ -41346,7 +41346,7 @@
         <v>26</v>
       </c>
       <c r="D1940">
-        <v>326.5</v>
+        <v>323.5</v>
       </c>
       <c r="E1940" t="s">
         <v>2661</v>
@@ -41363,7 +41363,7 @@
         <v>26</v>
       </c>
       <c r="D1941">
-        <v>174.5</v>
+        <v>174.25</v>
       </c>
       <c r="E1941" t="s">
         <v>2661</v>
@@ -41448,7 +41448,7 @@
         <v>3</v>
       </c>
       <c r="D1946">
-        <v>30.51332268839602</v>
+        <v>30.75</v>
       </c>
       <c r="E1946" t="s">
         <v>2662</v>
@@ -41465,7 +41465,7 @@
         <v>1</v>
       </c>
       <c r="D1947">
-        <v>366.1598722607523</v>
+        <v>369</v>
       </c>
       <c r="E1947" t="s">
         <v>2661</v>
@@ -41482,7 +41482,7 @@
         <v>3</v>
       </c>
       <c r="D1948">
-        <v>30.46292325397405</v>
+        <v>30.5</v>
       </c>
       <c r="E1948" t="s">
         <v>2662</v>
@@ -41499,7 +41499,7 @@
         <v>1</v>
       </c>
       <c r="D1949">
-        <v>365.5550790476885</v>
+        <v>366</v>
       </c>
       <c r="E1949" t="s">
         <v>2661</v>
@@ -42077,7 +42077,7 @@
         <v>12</v>
       </c>
       <c r="D1983">
-        <v>1715</v>
+        <v>1713.5</v>
       </c>
       <c r="E1983" t="s">
         <v>2661</v>
@@ -42094,7 +42094,7 @@
         <v>12</v>
       </c>
       <c r="D1984">
-        <v>1615</v>
+        <v>1609.75</v>
       </c>
       <c r="E1984" t="s">
         <v>2661</v>
@@ -42179,7 +42179,7 @@
         <v>1</v>
       </c>
       <c r="D1989">
-        <v>300.5</v>
+        <v>299.25</v>
       </c>
       <c r="E1989" t="s">
         <v>2661</v>
@@ -42196,7 +42196,7 @@
         <v>1</v>
       </c>
       <c r="D1990">
-        <v>102.5</v>
+        <v>101.75</v>
       </c>
       <c r="E1990" t="s">
         <v>2661</v>
@@ -42332,7 +42332,7 @@
         <v>3</v>
       </c>
       <c r="D1998">
-        <v>834.1145234789793</v>
+        <v>828.5</v>
       </c>
       <c r="E1998" t="s">
         <v>2662</v>
@@ -42349,7 +42349,7 @@
         <v>1</v>
       </c>
       <c r="D1999">
-        <v>5004.687140873876</v>
+        <v>4971</v>
       </c>
       <c r="E1999" t="s">
         <v>2661</v>
@@ -42400,7 +42400,7 @@
         <v>3</v>
       </c>
       <c r="D2002">
-        <v>102.5</v>
+        <v>101.75</v>
       </c>
       <c r="E2002" t="s">
         <v>2662</v>
@@ -42417,7 +42417,7 @@
         <v>1</v>
       </c>
       <c r="D2003">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="E2003" t="s">
         <v>2661</v>
@@ -42434,7 +42434,7 @@
         <v>3</v>
       </c>
       <c r="D2004">
-        <v>837.4508932447486</v>
+        <v>837</v>
       </c>
       <c r="E2004" t="s">
         <v>2662</v>
@@ -42451,7 +42451,7 @@
         <v>1</v>
       </c>
       <c r="D2005">
-        <v>5024.705359468491</v>
+        <v>5022</v>
       </c>
       <c r="E2005" t="s">
         <v>2661</v>
@@ -42502,7 +42502,7 @@
         <v>7</v>
       </c>
       <c r="D2008">
-        <v>60.5</v>
+        <v>60.25</v>
       </c>
       <c r="E2008" t="s">
         <v>2662</v>
@@ -42519,7 +42519,7 @@
         <v>2</v>
       </c>
       <c r="D2009">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E2009" t="s">
         <v>2661</v>
@@ -42536,7 +42536,7 @@
         <v>7</v>
       </c>
       <c r="D2010">
-        <v>30.25</v>
+        <v>30</v>
       </c>
       <c r="E2010" t="s">
         <v>2662</v>
@@ -42553,7 +42553,7 @@
         <v>2</v>
       </c>
       <c r="D2011">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E2011" t="s">
         <v>2661</v>
@@ -42570,7 +42570,7 @@
         <v>7</v>
       </c>
       <c r="D2012">
-        <v>32.5</v>
+        <v>32.25</v>
       </c>
       <c r="E2012" t="s">
         <v>2662</v>
@@ -42587,7 +42587,7 @@
         <v>2</v>
       </c>
       <c r="D2013">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E2013" t="s">
         <v>2661</v>
@@ -42638,7 +42638,7 @@
         <v>7</v>
       </c>
       <c r="D2016">
-        <v>40.5</v>
+        <v>40.25</v>
       </c>
       <c r="E2016" t="s">
         <v>2662</v>
@@ -42655,7 +42655,7 @@
         <v>2</v>
       </c>
       <c r="D2017">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E2017" t="s">
         <v>2661</v>
@@ -42672,7 +42672,7 @@
         <v>7</v>
       </c>
       <c r="D2018">
-        <v>34</v>
+        <v>33.75</v>
       </c>
       <c r="E2018" t="s">
         <v>2662</v>
@@ -42689,7 +42689,7 @@
         <v>2</v>
       </c>
       <c r="D2019">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E2019" t="s">
         <v>2661</v>
@@ -42740,7 +42740,7 @@
         <v>3</v>
       </c>
       <c r="D2022">
-        <v>19.75</v>
+        <v>19.5</v>
       </c>
       <c r="E2022" t="s">
         <v>2662</v>
@@ -42757,7 +42757,7 @@
         <v>1</v>
       </c>
       <c r="D2023">
-        <v>98.75</v>
+        <v>97.5</v>
       </c>
       <c r="E2023" t="s">
         <v>2661</v>
@@ -42774,7 +42774,7 @@
         <v>3</v>
       </c>
       <c r="D2024">
-        <v>19.75</v>
+        <v>19.5</v>
       </c>
       <c r="E2024" t="s">
         <v>2662</v>
@@ -42791,7 +42791,7 @@
         <v>1</v>
       </c>
       <c r="D2025">
-        <v>98.75</v>
+        <v>97.5</v>
       </c>
       <c r="E2025" t="s">
         <v>2661</v>
@@ -43114,7 +43114,7 @@
         <v>1</v>
       </c>
       <c r="D2044">
-        <v>111</v>
+        <v>110.25</v>
       </c>
       <c r="E2044" t="s">
         <v>2661</v>
@@ -43216,7 +43216,7 @@
         <v>1</v>
       </c>
       <c r="D2050">
-        <v>365</v>
+        <v>363.5</v>
       </c>
       <c r="E2050" t="s">
         <v>2661</v>
@@ -43267,7 +43267,7 @@
         <v>1</v>
       </c>
       <c r="D2053">
-        <v>247.25</v>
+        <v>242.75</v>
       </c>
       <c r="E2053" t="s">
         <v>2661</v>
@@ -43352,7 +43352,7 @@
         <v>1</v>
       </c>
       <c r="D2058">
-        <v>332.3533050322221</v>
+        <v>332.5</v>
       </c>
       <c r="E2058" t="s">
         <v>2661</v>
@@ -43386,7 +43386,7 @@
         <v>1</v>
       </c>
       <c r="D2060">
-        <v>352</v>
+        <v>351.75</v>
       </c>
       <c r="E2060" t="s">
         <v>2661</v>
@@ -43403,7 +43403,7 @@
         <v>1</v>
       </c>
       <c r="D2061">
-        <v>618.25</v>
+        <v>614.5</v>
       </c>
       <c r="E2061" t="s">
         <v>2661</v>
@@ -43420,7 +43420,7 @@
         <v>1</v>
       </c>
       <c r="D2062">
-        <v>500.75</v>
+        <v>497.75</v>
       </c>
       <c r="E2062" t="s">
         <v>2661</v>
@@ -43590,7 +43590,7 @@
         <v>1</v>
       </c>
       <c r="D2072">
-        <v>246.25</v>
+        <v>246</v>
       </c>
       <c r="E2072" t="s">
         <v>2661</v>
@@ -43862,7 +43862,7 @@
         <v>7</v>
       </c>
       <c r="D2088">
-        <v>46.2675</v>
+        <v>46.5</v>
       </c>
       <c r="E2088" t="s">
         <v>2662</v>
@@ -43879,7 +43879,7 @@
         <v>1</v>
       </c>
       <c r="D2089">
-        <v>925.3499999999999</v>
+        <v>930</v>
       </c>
       <c r="E2089" t="s">
         <v>2661</v>
@@ -44219,7 +44219,7 @@
         <v>3</v>
       </c>
       <c r="D2109">
-        <v>108.5</v>
+        <v>108.25</v>
       </c>
       <c r="E2109" t="s">
         <v>2662</v>
@@ -44236,7 +44236,7 @@
         <v>1</v>
       </c>
       <c r="D2110">
-        <v>651</v>
+        <v>649.5</v>
       </c>
       <c r="E2110" t="s">
         <v>2661</v>
@@ -44321,7 +44321,7 @@
         <v>3</v>
       </c>
       <c r="D2115">
-        <v>108.25</v>
+        <v>108</v>
       </c>
       <c r="E2115" t="s">
         <v>2662</v>
@@ -44338,7 +44338,7 @@
         <v>1</v>
       </c>
       <c r="D2116">
-        <v>649.5</v>
+        <v>648</v>
       </c>
       <c r="E2116" t="s">
         <v>2661</v>
@@ -44355,7 +44355,7 @@
         <v>3</v>
       </c>
       <c r="D2117">
-        <v>110.75</v>
+        <v>110.25</v>
       </c>
       <c r="E2117" t="s">
         <v>2662</v>
@@ -44372,7 +44372,7 @@
         <v>1</v>
       </c>
       <c r="D2118">
-        <v>664.5</v>
+        <v>661.5</v>
       </c>
       <c r="E2118" t="s">
         <v>2661</v>
@@ -44389,7 +44389,7 @@
         <v>2</v>
       </c>
       <c r="D2119">
-        <v>222.5</v>
+        <v>222</v>
       </c>
       <c r="E2119" t="s">
         <v>2661</v>
@@ -44423,7 +44423,7 @@
         <v>12</v>
       </c>
       <c r="D2121">
-        <v>650.75</v>
+        <v>647.5</v>
       </c>
       <c r="E2121" t="s">
         <v>2661</v>
@@ -45613,7 +45613,7 @@
         <v>1</v>
       </c>
       <c r="D2191">
-        <v>600.75</v>
+        <v>598.75</v>
       </c>
       <c r="E2191" t="s">
         <v>2661</v>
@@ -45647,7 +45647,7 @@
         <v>7</v>
       </c>
       <c r="D2193">
-        <v>38</v>
+        <v>37.75</v>
       </c>
       <c r="E2193" t="s">
         <v>2662</v>
@@ -45664,7 +45664,7 @@
         <v>15</v>
       </c>
       <c r="D2194">
-        <v>190</v>
+        <v>188.75</v>
       </c>
       <c r="E2194" t="s">
         <v>2661</v>
@@ -45681,7 +45681,7 @@
         <v>16</v>
       </c>
       <c r="D2195">
-        <v>380</v>
+        <v>377.5</v>
       </c>
       <c r="E2195" t="s">
         <v>2661</v>
@@ -45698,7 +45698,7 @@
         <v>1</v>
       </c>
       <c r="D2196">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E2196" t="s">
         <v>2661</v>
@@ -45715,7 +45715,7 @@
         <v>7</v>
       </c>
       <c r="D2197">
-        <v>22</v>
+        <v>21.75</v>
       </c>
       <c r="E2197" t="s">
         <v>2662</v>
@@ -45732,7 +45732,7 @@
         <v>15</v>
       </c>
       <c r="D2198">
-        <v>110</v>
+        <v>108.75</v>
       </c>
       <c r="E2198" t="s">
         <v>2661</v>
@@ -45749,7 +45749,7 @@
         <v>16</v>
       </c>
       <c r="D2199">
-        <v>220</v>
+        <v>217.5</v>
       </c>
       <c r="E2199" t="s">
         <v>2661</v>
@@ -45766,7 +45766,7 @@
         <v>1</v>
       </c>
       <c r="D2200">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E2200" t="s">
         <v>2661</v>
@@ -45783,7 +45783,7 @@
         <v>7</v>
       </c>
       <c r="D2201">
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="E2201" t="s">
         <v>2662</v>
@@ -45800,7 +45800,7 @@
         <v>15</v>
       </c>
       <c r="D2202">
-        <v>82.5</v>
+        <v>81.25</v>
       </c>
       <c r="E2202" t="s">
         <v>2661</v>
@@ -45817,7 +45817,7 @@
         <v>16</v>
       </c>
       <c r="D2203">
-        <v>165</v>
+        <v>162.5</v>
       </c>
       <c r="E2203" t="s">
         <v>2661</v>
@@ -45834,7 +45834,7 @@
         <v>1</v>
       </c>
       <c r="D2204">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E2204" t="s">
         <v>2661</v>
@@ -46429,7 +46429,7 @@
         <v>3</v>
       </c>
       <c r="D2239">
-        <v>68.25</v>
+        <v>67.75</v>
       </c>
       <c r="E2239" t="s">
         <v>2662</v>
@@ -46446,7 +46446,7 @@
         <v>1</v>
       </c>
       <c r="D2240">
-        <v>1228.5</v>
+        <v>1219.5</v>
       </c>
       <c r="E2240" t="s">
         <v>2661</v>
@@ -46463,7 +46463,7 @@
         <v>3</v>
       </c>
       <c r="D2241">
-        <v>66.25</v>
+        <v>66</v>
       </c>
       <c r="E2241" t="s">
         <v>2662</v>
@@ -46480,7 +46480,7 @@
         <v>1</v>
       </c>
       <c r="D2242">
-        <v>1192.5</v>
+        <v>1188</v>
       </c>
       <c r="E2242" t="s">
         <v>2661</v>
@@ -46922,7 +46922,7 @@
         <v>1</v>
       </c>
       <c r="D2268">
-        <v>212.75</v>
+        <v>212.5</v>
       </c>
       <c r="E2268" t="s">
         <v>2661</v>
@@ -47092,7 +47092,7 @@
         <v>7</v>
       </c>
       <c r="D2278">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="E2278" t="s">
         <v>2662</v>
@@ -47109,7 +47109,7 @@
         <v>15</v>
       </c>
       <c r="D2279">
-        <v>68.75</v>
+        <v>67.5</v>
       </c>
       <c r="E2279" t="s">
         <v>2661</v>
@@ -47126,7 +47126,7 @@
         <v>16</v>
       </c>
       <c r="D2280">
-        <v>137.5</v>
+        <v>135</v>
       </c>
       <c r="E2280" t="s">
         <v>2661</v>
@@ -47143,7 +47143,7 @@
         <v>1</v>
       </c>
       <c r="D2281">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E2281" t="s">
         <v>2661</v>
@@ -47160,7 +47160,7 @@
         <v>332</v>
       </c>
       <c r="D2282">
-        <v>548.5</v>
+        <v>546</v>
       </c>
       <c r="E2282" t="s">
         <v>2662</v>
@@ -47177,7 +47177,7 @@
         <v>1</v>
       </c>
       <c r="D2283">
-        <v>4388</v>
+        <v>4368</v>
       </c>
       <c r="E2283" t="s">
         <v>2661</v>
@@ -47194,7 +47194,7 @@
         <v>1</v>
       </c>
       <c r="D2284">
-        <v>369.5</v>
+        <v>367.5</v>
       </c>
       <c r="E2284" t="s">
         <v>2661</v>
@@ -47228,7 +47228,7 @@
         <v>26</v>
       </c>
       <c r="D2286">
-        <v>165.25</v>
+        <v>164.5</v>
       </c>
       <c r="E2286" t="s">
         <v>2662</v>
@@ -47245,7 +47245,7 @@
         <v>1</v>
       </c>
       <c r="D2287">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E2287" t="s">
         <v>2661</v>
@@ -47296,7 +47296,7 @@
         <v>26</v>
       </c>
       <c r="D2290">
-        <v>171</v>
+        <v>170.25</v>
       </c>
       <c r="E2290" t="s">
         <v>2662</v>
@@ -47313,7 +47313,7 @@
         <v>1</v>
       </c>
       <c r="D2291">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E2291" t="s">
         <v>2661</v>
@@ -47415,7 +47415,7 @@
         <v>7</v>
       </c>
       <c r="D2297">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="E2297" t="s">
         <v>2662</v>
@@ -47432,7 +47432,7 @@
         <v>2</v>
       </c>
       <c r="D2298">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E2298" t="s">
         <v>2661</v>
@@ -47874,7 +47874,7 @@
         <v>1</v>
       </c>
       <c r="D2324">
-        <v>121</v>
+        <v>120.25</v>
       </c>
       <c r="E2324" t="s">
         <v>2661</v>
@@ -47891,7 +47891,7 @@
         <v>1</v>
       </c>
       <c r="D2325">
-        <v>343.75</v>
+        <v>342</v>
       </c>
       <c r="E2325" t="s">
         <v>2661</v>
@@ -48282,7 +48282,7 @@
         <v>1</v>
       </c>
       <c r="D2348">
-        <v>844.75</v>
+        <v>844.25</v>
       </c>
       <c r="E2348" t="s">
         <v>2661</v>
@@ -48486,7 +48486,7 @@
         <v>1</v>
       </c>
       <c r="D2360">
-        <v>789</v>
+        <v>784.25</v>
       </c>
       <c r="E2360" t="s">
         <v>2661</v>
@@ -48724,7 +48724,7 @@
         <v>2</v>
       </c>
       <c r="D2374">
-        <v>205.25</v>
+        <v>204.75</v>
       </c>
       <c r="E2374" t="s">
         <v>2662</v>
@@ -48741,7 +48741,7 @@
         <v>1</v>
       </c>
       <c r="D2375">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="E2375" t="s">
         <v>2661</v>
@@ -48758,7 +48758,7 @@
         <v>2</v>
       </c>
       <c r="D2376">
-        <v>201.985</v>
+        <v>202</v>
       </c>
       <c r="E2376" t="s">
         <v>2662</v>
@@ -48775,7 +48775,7 @@
         <v>1</v>
       </c>
       <c r="D2377">
-        <v>1615.88</v>
+        <v>1616</v>
       </c>
       <c r="E2377" t="s">
         <v>2661</v>
@@ -48792,7 +48792,7 @@
         <v>2</v>
       </c>
       <c r="D2378">
-        <v>71.25</v>
+        <v>72.25</v>
       </c>
       <c r="E2378" t="s">
         <v>2662</v>
@@ -48809,7 +48809,7 @@
         <v>1</v>
       </c>
       <c r="D2379">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="E2379" t="s">
         <v>2661</v>
@@ -48877,7 +48877,7 @@
         <v>12</v>
       </c>
       <c r="D2383">
-        <v>662.75</v>
+        <v>659.75</v>
       </c>
       <c r="E2383" t="s">
         <v>2661</v>
@@ -49081,7 +49081,7 @@
         <v>2</v>
       </c>
       <c r="D2395">
-        <v>363.5</v>
+        <v>363.25</v>
       </c>
       <c r="E2395" t="s">
         <v>2662</v>
@@ -49098,7 +49098,7 @@
         <v>1</v>
       </c>
       <c r="D2396">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E2396" t="s">
         <v>2661</v>
@@ -49115,7 +49115,7 @@
         <v>2</v>
       </c>
       <c r="D2397">
-        <v>355.75</v>
+        <v>353.5</v>
       </c>
       <c r="E2397" t="s">
         <v>2662</v>
@@ -49132,7 +49132,7 @@
         <v>1</v>
       </c>
       <c r="D2398">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="E2398" t="s">
         <v>2661</v>
@@ -49319,7 +49319,7 @@
         <v>5</v>
       </c>
       <c r="D2409">
-        <v>207.5</v>
+        <v>206.5</v>
       </c>
       <c r="E2409" t="s">
         <v>2661</v>
@@ -49336,7 +49336,7 @@
         <v>5</v>
       </c>
       <c r="D2410">
-        <v>207.5</v>
+        <v>206.5</v>
       </c>
       <c r="E2410" t="s">
         <v>2661</v>
@@ -49438,7 +49438,7 @@
         <v>5</v>
       </c>
       <c r="D2416">
-        <v>369.75</v>
+        <v>369.25</v>
       </c>
       <c r="E2416" t="s">
         <v>2661</v>
@@ -49455,7 +49455,7 @@
         <v>10</v>
       </c>
       <c r="D2417">
-        <v>57.47053941908714</v>
+        <v>57.5</v>
       </c>
       <c r="E2417" t="s">
         <v>2662</v>
@@ -49472,7 +49472,7 @@
         <v>1</v>
       </c>
       <c r="D2418">
-        <v>2758.585892116183</v>
+        <v>2760</v>
       </c>
       <c r="E2418" t="s">
         <v>2661</v>
@@ -49574,7 +49574,7 @@
         <v>3</v>
       </c>
       <c r="D2424">
-        <v>19.5</v>
+        <v>19.25</v>
       </c>
       <c r="E2424" t="s">
         <v>2662</v>
@@ -49591,7 +49591,7 @@
         <v>1</v>
       </c>
       <c r="D2425">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E2425" t="s">
         <v>2661</v>
@@ -49608,7 +49608,7 @@
         <v>3</v>
       </c>
       <c r="D2426">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="E2426" t="s">
         <v>2662</v>
@@ -49625,7 +49625,7 @@
         <v>1</v>
       </c>
       <c r="D2427">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E2427" t="s">
         <v>2661</v>
@@ -49642,7 +49642,7 @@
         <v>25</v>
       </c>
       <c r="D2428">
-        <v>336.503847002748</v>
+        <v>336.75</v>
       </c>
       <c r="E2428" t="s">
         <v>2662</v>
@@ -49659,7 +49659,7 @@
         <v>2</v>
       </c>
       <c r="D2429">
-        <v>1009.511541008244</v>
+        <v>1010.25</v>
       </c>
       <c r="E2429" t="s">
         <v>2661</v>
@@ -49846,7 +49846,7 @@
         <v>7</v>
       </c>
       <c r="D2440">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="E2440" t="s">
         <v>2662</v>
@@ -49863,7 +49863,7 @@
         <v>1</v>
       </c>
       <c r="D2441">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E2441" t="s">
         <v>2661</v>
@@ -50169,7 +50169,7 @@
         <v>10</v>
       </c>
       <c r="D2459">
-        <v>40.5</v>
+        <v>40.25</v>
       </c>
       <c r="E2459" t="s">
         <v>2662</v>
@@ -50186,7 +50186,7 @@
         <v>1</v>
       </c>
       <c r="D2460">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="E2460" t="s">
         <v>2661</v>
@@ -50203,7 +50203,7 @@
         <v>10</v>
       </c>
       <c r="D2461">
-        <v>75.75</v>
+        <v>75.5</v>
       </c>
       <c r="E2461" t="s">
         <v>2662</v>
@@ -50220,7 +50220,7 @@
         <v>1</v>
       </c>
       <c r="D2462">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E2462" t="s">
         <v>2661</v>
@@ -50237,7 +50237,7 @@
         <v>10</v>
       </c>
       <c r="D2463">
-        <v>73</v>
+        <v>73.25</v>
       </c>
       <c r="E2463" t="s">
         <v>2662</v>
@@ -50254,7 +50254,7 @@
         <v>1</v>
       </c>
       <c r="D2464">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E2464" t="s">
         <v>2661</v>
@@ -50475,7 +50475,7 @@
         <v>25</v>
       </c>
       <c r="D2477">
-        <v>65.5</v>
+        <v>65.25</v>
       </c>
       <c r="E2477" t="s">
         <v>2662</v>
@@ -50492,7 +50492,7 @@
         <v>1</v>
       </c>
       <c r="D2478">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E2478" t="s">
         <v>2661</v>
@@ -50798,7 +50798,7 @@
         <v>25</v>
       </c>
       <c r="D2496">
-        <v>336.7416038767715</v>
+        <v>336.75</v>
       </c>
       <c r="E2496" t="s">
         <v>2662</v>
@@ -50815,7 +50815,7 @@
         <v>2</v>
       </c>
       <c r="D2497">
-        <v>1010.224811630315</v>
+        <v>1010.25</v>
       </c>
       <c r="E2497" t="s">
         <v>2661</v>
@@ -51036,7 +51036,7 @@
         <v>2</v>
       </c>
       <c r="D2510">
-        <v>60.25</v>
+        <v>60.5</v>
       </c>
       <c r="E2510" t="s">
         <v>2662</v>
@@ -51053,7 +51053,7 @@
         <v>1</v>
       </c>
       <c r="D2511">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E2511" t="s">
         <v>2661</v>
@@ -51614,7 +51614,7 @@
         <v>1</v>
       </c>
       <c r="D2544">
-        <v>175.36875</v>
+        <v>175.5</v>
       </c>
       <c r="E2544" t="s">
         <v>2661</v>
@@ -51631,7 +51631,7 @@
         <v>1</v>
       </c>
       <c r="D2545">
-        <v>178.0220833333333</v>
+        <v>178.25</v>
       </c>
       <c r="E2545" t="s">
         <v>2661</v>
@@ -52600,7 +52600,7 @@
         <v>2</v>
       </c>
       <c r="D2602">
-        <v>520.5</v>
+        <v>518</v>
       </c>
       <c r="E2602" t="s">
         <v>2661</v>
@@ -53144,7 +53144,7 @@
         <v>68</v>
       </c>
       <c r="D2634">
-        <v>124</v>
+        <v>123.25</v>
       </c>
       <c r="E2634" t="s">
         <v>2662</v>
@@ -53161,7 +53161,7 @@
         <v>3</v>
       </c>
       <c r="D2635">
-        <v>248</v>
+        <v>246.5</v>
       </c>
       <c r="E2635" t="s">
         <v>2661</v>
@@ -53178,7 +53178,7 @@
         <v>1</v>
       </c>
       <c r="D2636">
-        <v>2976</v>
+        <v>2958</v>
       </c>
       <c r="E2636" t="s">
         <v>2661</v>
@@ -53195,7 +53195,7 @@
         <v>3</v>
       </c>
       <c r="D2637">
-        <v>19.5</v>
+        <v>19.25</v>
       </c>
       <c r="E2637" t="s">
         <v>2662</v>
@@ -53212,7 +53212,7 @@
         <v>1</v>
       </c>
       <c r="D2638">
-        <v>195</v>
+        <v>192.5</v>
       </c>
       <c r="E2638" t="s">
         <v>2661</v>
@@ -53518,7 +53518,7 @@
         <v>3</v>
       </c>
       <c r="D2656">
-        <v>67</v>
+        <v>66.75</v>
       </c>
       <c r="E2656" t="s">
         <v>2662</v>
@@ -53535,7 +53535,7 @@
         <v>1</v>
       </c>
       <c r="D2657">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E2657" t="s">
         <v>2661</v>
@@ -53586,7 +53586,7 @@
         <v>3</v>
       </c>
       <c r="D2660">
-        <v>58.75704003408634</v>
+        <v>59</v>
       </c>
       <c r="E2660" t="s">
         <v>2662</v>
@@ -53603,7 +53603,7 @@
         <v>1</v>
       </c>
       <c r="D2661">
-        <v>705.0844804090361</v>
+        <v>708</v>
       </c>
       <c r="E2661" t="s">
         <v>2661</v>
@@ -53620,7 +53620,7 @@
         <v>3</v>
       </c>
       <c r="D2662">
-        <v>58.46913292198347</v>
+        <v>58.5</v>
       </c>
       <c r="E2662" t="s">
         <v>2662</v>
@@ -53637,7 +53637,7 @@
         <v>1</v>
       </c>
       <c r="D2663">
-        <v>701.6295950638016</v>
+        <v>702</v>
       </c>
       <c r="E2663" t="s">
         <v>2661</v>
@@ -53688,7 +53688,7 @@
         <v>3</v>
       </c>
       <c r="D2666">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="E2666" t="s">
         <v>2662</v>
@@ -53705,7 +53705,7 @@
         <v>1</v>
       </c>
       <c r="D2667">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="E2667" t="s">
         <v>2661</v>
@@ -53722,7 +53722,7 @@
         <v>3</v>
       </c>
       <c r="D2668">
-        <v>75</v>
+        <v>74.25</v>
       </c>
       <c r="E2668" t="s">
         <v>2662</v>
@@ -53739,7 +53739,7 @@
         <v>1</v>
       </c>
       <c r="D2669">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="E2669" t="s">
         <v>2661</v>
@@ -53960,7 +53960,7 @@
         <v>1</v>
       </c>
       <c r="D2682">
-        <v>208.25</v>
+        <v>208</v>
       </c>
       <c r="E2682" t="s">
         <v>2661</v>
@@ -54062,7 +54062,7 @@
         <v>3</v>
       </c>
       <c r="D2688">
-        <v>279.75</v>
+        <v>278.5</v>
       </c>
       <c r="E2688" t="s">
         <v>2662</v>
@@ -54079,7 +54079,7 @@
         <v>1</v>
       </c>
       <c r="D2689">
-        <v>3357</v>
+        <v>3342</v>
       </c>
       <c r="E2689" t="s">
         <v>2661</v>
@@ -54232,7 +54232,7 @@
         <v>3</v>
       </c>
       <c r="D2698">
-        <v>89.5</v>
+        <v>89.25</v>
       </c>
       <c r="E2698" t="s">
         <v>2662</v>
@@ -54249,7 +54249,7 @@
         <v>1</v>
       </c>
       <c r="D2699">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="E2699" t="s">
         <v>2661</v>
@@ -54266,7 +54266,7 @@
         <v>3</v>
       </c>
       <c r="D2700">
-        <v>156.0329286380563</v>
+        <v>159.25</v>
       </c>
       <c r="E2700" t="s">
         <v>2662</v>
@@ -54283,7 +54283,7 @@
         <v>1</v>
       </c>
       <c r="D2701">
-        <v>4680.98785914169</v>
+        <v>4777.5</v>
       </c>
       <c r="E2701" t="s">
         <v>2661</v>
@@ -54300,7 +54300,7 @@
         <v>3</v>
       </c>
       <c r="D2702">
-        <v>155.3900492726367</v>
+        <v>159.25</v>
       </c>
       <c r="E2702" t="s">
         <v>2662</v>
@@ -54317,7 +54317,7 @@
         <v>1</v>
       </c>
       <c r="D2703">
-        <v>4661.701478179101</v>
+        <v>4777.5</v>
       </c>
       <c r="E2703" t="s">
         <v>2661</v>
@@ -54436,7 +54436,7 @@
         <v>3</v>
       </c>
       <c r="D2710">
-        <v>23</v>
+        <v>22.75</v>
       </c>
       <c r="E2710" t="s">
         <v>2662</v>
@@ -54453,7 +54453,7 @@
         <v>1</v>
       </c>
       <c r="D2711">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E2711" t="s">
         <v>2661</v>
@@ -54504,7 +54504,7 @@
         <v>1</v>
       </c>
       <c r="D2714">
-        <v>90.25</v>
+        <v>89.75</v>
       </c>
       <c r="E2714" t="s">
         <v>2661</v>
@@ -54521,7 +54521,7 @@
         <v>1</v>
       </c>
       <c r="D2715">
-        <v>111.25</v>
+        <v>110.75</v>
       </c>
       <c r="E2715" t="s">
         <v>2661</v>
@@ -54538,7 +54538,7 @@
         <v>1</v>
       </c>
       <c r="D2716">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="E2716" t="s">
         <v>2661</v>
@@ -54793,7 +54793,7 @@
         <v>3</v>
       </c>
       <c r="D2731">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="E2731" t="s">
         <v>2662</v>
@@ -54810,7 +54810,7 @@
         <v>1</v>
       </c>
       <c r="D2732">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E2732" t="s">
         <v>2661</v>
@@ -54827,7 +54827,7 @@
         <v>3</v>
       </c>
       <c r="D2733">
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="E2733" t="s">
         <v>2662</v>
@@ -54844,7 +54844,7 @@
         <v>1</v>
       </c>
       <c r="D2734">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E2734" t="s">
         <v>2661</v>
@@ -54929,7 +54929,7 @@
         <v>3</v>
       </c>
       <c r="D2739">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
       <c r="E2739" t="s">
         <v>2662</v>
@@ -54946,7 +54946,7 @@
         <v>1</v>
       </c>
       <c r="D2740">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E2740" t="s">
         <v>2661</v>
@@ -54963,7 +54963,7 @@
         <v>3</v>
       </c>
       <c r="D2741">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="E2741" t="s">
         <v>2662</v>
@@ -54980,7 +54980,7 @@
         <v>1</v>
       </c>
       <c r="D2742">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E2742" t="s">
         <v>2661</v>
@@ -55031,7 +55031,7 @@
         <v>3</v>
       </c>
       <c r="D2745">
-        <v>35</v>
+        <v>34.75</v>
       </c>
       <c r="E2745" t="s">
         <v>2662</v>
@@ -55048,7 +55048,7 @@
         <v>1</v>
       </c>
       <c r="D2746">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E2746" t="s">
         <v>2661</v>
@@ -55779,7 +55779,7 @@
         <v>1</v>
       </c>
       <c r="D2789">
-        <v>55.25</v>
+        <v>55</v>
       </c>
       <c r="E2789" t="s">
         <v>2661</v>
@@ -55813,7 +55813,7 @@
         <v>1</v>
       </c>
       <c r="D2791">
-        <v>336.25</v>
+        <v>335.75</v>
       </c>
       <c r="E2791" t="s">
         <v>2661</v>
@@ -56136,7 +56136,7 @@
         <v>7</v>
       </c>
       <c r="D2810">
-        <v>21.25</v>
+        <v>21</v>
       </c>
       <c r="E2810" t="s">
         <v>2662</v>
@@ -56153,7 +56153,7 @@
         <v>1</v>
       </c>
       <c r="D2811">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E2811" t="s">
         <v>2661</v>
@@ -56204,7 +56204,7 @@
         <v>25</v>
       </c>
       <c r="D2814">
-        <v>325.4553054814812</v>
+        <v>325.5</v>
       </c>
       <c r="E2814" t="s">
         <v>2662</v>
@@ -56221,7 +56221,7 @@
         <v>29</v>
       </c>
       <c r="D2815">
-        <v>976.3659164444437</v>
+        <v>976.5</v>
       </c>
       <c r="E2815" t="s">
         <v>2661</v>
@@ -56340,7 +56340,7 @@
         <v>1</v>
       </c>
       <c r="D2822">
-        <v>55.25</v>
+        <v>55</v>
       </c>
       <c r="E2822" t="s">
         <v>2661</v>
@@ -56425,7 +56425,7 @@
         <v>25</v>
       </c>
       <c r="D2827">
-        <v>325.9643634704039</v>
+        <v>326</v>
       </c>
       <c r="E2827" t="s">
         <v>2662</v>
@@ -56442,7 +56442,7 @@
         <v>29</v>
       </c>
       <c r="D2828">
-        <v>977.8930904112117</v>
+        <v>978</v>
       </c>
       <c r="E2828" t="s">
         <v>2661</v>
@@ -56493,7 +56493,7 @@
         <v>2</v>
       </c>
       <c r="D2831">
-        <v>158</v>
+        <v>157.25</v>
       </c>
       <c r="E2831" t="s">
         <v>2661</v>
@@ -56510,7 +56510,7 @@
         <v>2</v>
       </c>
       <c r="D2832">
-        <v>157.5</v>
+        <v>156.5</v>
       </c>
       <c r="E2832" t="s">
         <v>2661</v>
@@ -56544,7 +56544,7 @@
         <v>2</v>
       </c>
       <c r="D2834">
-        <v>158</v>
+        <v>157.25</v>
       </c>
       <c r="E2834" t="s">
         <v>2661</v>
@@ -56561,7 +56561,7 @@
         <v>2</v>
       </c>
       <c r="D2835">
-        <v>158</v>
+        <v>157.25</v>
       </c>
       <c r="E2835" t="s">
         <v>2661</v>
@@ -56595,7 +56595,7 @@
         <v>2</v>
       </c>
       <c r="D2837">
-        <v>161.5</v>
+        <v>160.5</v>
       </c>
       <c r="E2837" t="s">
         <v>2661</v>
@@ -56612,7 +56612,7 @@
         <v>2</v>
       </c>
       <c r="D2838">
-        <v>161.75</v>
+        <v>160.75</v>
       </c>
       <c r="E2838" t="s">
         <v>2661</v>
@@ -56850,7 +56850,7 @@
         <v>1</v>
       </c>
       <c r="D2852">
-        <v>92.25</v>
+        <v>92</v>
       </c>
       <c r="E2852" t="s">
         <v>2661</v>
@@ -56867,7 +56867,7 @@
         <v>3</v>
       </c>
       <c r="D2853">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="E2853" t="s">
         <v>2662</v>
@@ -56884,7 +56884,7 @@
         <v>1</v>
       </c>
       <c r="D2854">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E2854" t="s">
         <v>2661</v>
@@ -56986,7 +56986,7 @@
         <v>1</v>
       </c>
       <c r="D2860">
-        <v>732</v>
+        <v>737.75</v>
       </c>
       <c r="E2860" t="s">
         <v>2661</v>
@@ -57003,7 +57003,7 @@
         <v>1</v>
       </c>
       <c r="D2861">
-        <v>732</v>
+        <v>737.75</v>
       </c>
       <c r="E2861" t="s">
         <v>2661</v>
@@ -57054,7 +57054,7 @@
         <v>3</v>
       </c>
       <c r="D2864">
-        <v>39.5</v>
+        <v>39.25</v>
       </c>
       <c r="E2864" t="s">
         <v>2662</v>
@@ -57071,7 +57071,7 @@
         <v>1</v>
       </c>
       <c r="D2865">
-        <v>237</v>
+        <v>235.5</v>
       </c>
       <c r="E2865" t="s">
         <v>2661</v>
@@ -57428,7 +57428,7 @@
         <v>1</v>
       </c>
       <c r="D2886">
-        <v>81.5</v>
+        <v>81.25</v>
       </c>
       <c r="E2886" t="s">
         <v>2661</v>
@@ -57887,7 +57887,7 @@
         <v>2</v>
       </c>
       <c r="D2913">
-        <v>95.5</v>
+        <v>95.75</v>
       </c>
       <c r="E2913" t="s">
         <v>2662</v>
@@ -57904,7 +57904,7 @@
         <v>1</v>
       </c>
       <c r="D2914">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E2914" t="s">
         <v>2661</v>
@@ -57989,7 +57989,7 @@
         <v>1</v>
       </c>
       <c r="D2919">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2919" t="s">
         <v>2661</v>
@@ -58040,7 +58040,7 @@
         <v>3</v>
       </c>
       <c r="D2922">
-        <v>59.90115784843466</v>
+        <v>60</v>
       </c>
       <c r="E2922" t="s">
         <v>2662</v>
@@ -58057,7 +58057,7 @@
         <v>1</v>
       </c>
       <c r="D2923">
-        <v>718.8138941812159</v>
+        <v>720</v>
       </c>
       <c r="E2923" t="s">
         <v>2661</v>
@@ -58074,7 +58074,7 @@
         <v>3</v>
       </c>
       <c r="D2924">
-        <v>59.90115784843466</v>
+        <v>60</v>
       </c>
       <c r="E2924" t="s">
         <v>2662</v>
@@ -58091,7 +58091,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>718.8138941812159</v>
+        <v>720</v>
       </c>
       <c r="E2925" t="s">
         <v>2661</v>
@@ -58108,7 +58108,7 @@
         <v>25</v>
       </c>
       <c r="D2926">
-        <v>261.75</v>
+        <v>262</v>
       </c>
       <c r="E2926" t="s">
         <v>2662</v>
@@ -58125,7 +58125,7 @@
         <v>29</v>
       </c>
       <c r="D2927">
-        <v>785.25</v>
+        <v>786</v>
       </c>
       <c r="E2927" t="s">
         <v>2661</v>
@@ -58176,7 +58176,7 @@
         <v>3</v>
       </c>
       <c r="D2930">
-        <v>19.25</v>
+        <v>19</v>
       </c>
       <c r="E2930" t="s">
         <v>2662</v>
@@ -58193,7 +58193,7 @@
         <v>1</v>
       </c>
       <c r="D2931">
-        <v>96.25</v>
+        <v>95</v>
       </c>
       <c r="E2931" t="s">
         <v>2661</v>
@@ -58618,7 +58618,7 @@
         <v>332</v>
       </c>
       <c r="D2956">
-        <v>856.5</v>
+        <v>856</v>
       </c>
       <c r="E2956" t="s">
         <v>2662</v>
@@ -58635,7 +58635,7 @@
         <v>1</v>
       </c>
       <c r="D2957">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="E2957" t="s">
         <v>2661</v>
@@ -58652,7 +58652,7 @@
         <v>332</v>
       </c>
       <c r="D2958">
-        <v>281.75</v>
+        <v>281</v>
       </c>
       <c r="E2958" t="s">
         <v>2662</v>
@@ -58669,7 +58669,7 @@
         <v>1</v>
       </c>
       <c r="D2959">
-        <v>3381</v>
+        <v>3372</v>
       </c>
       <c r="E2959" t="s">
         <v>2661</v>
@@ -58737,7 +58737,7 @@
         <v>23</v>
       </c>
       <c r="D2963">
-        <v>26.78208333333334</v>
+        <v>26.75</v>
       </c>
       <c r="E2963" t="s">
         <v>2662</v>
@@ -58754,7 +58754,7 @@
         <v>2</v>
       </c>
       <c r="D2964">
-        <v>160.6925</v>
+        <v>160.5</v>
       </c>
       <c r="E2964" t="s">
         <v>2661</v>
@@ -58771,7 +58771,7 @@
         <v>1</v>
       </c>
       <c r="D2965">
-        <v>964.1550000000001</v>
+        <v>963</v>
       </c>
       <c r="E2965" t="s">
         <v>2661</v>
@@ -58941,7 +58941,7 @@
         <v>23</v>
       </c>
       <c r="D2975">
-        <v>26.87009211220649</v>
+        <v>27</v>
       </c>
       <c r="E2975" t="s">
         <v>2662</v>
@@ -58958,7 +58958,7 @@
         <v>2</v>
       </c>
       <c r="D2976">
-        <v>161.2205526732389</v>
+        <v>162</v>
       </c>
       <c r="E2976" t="s">
         <v>2661</v>
@@ -58975,7 +58975,7 @@
         <v>1</v>
       </c>
       <c r="D2977">
-        <v>967.3233160394335</v>
+        <v>972</v>
       </c>
       <c r="E2977" t="s">
         <v>2661</v>
@@ -59332,7 +59332,7 @@
         <v>1</v>
       </c>
       <c r="D2998">
-        <v>47.5</v>
+        <v>47.25</v>
       </c>
       <c r="E2998" t="s">
         <v>2661</v>
@@ -59400,7 +59400,7 @@
         <v>3</v>
       </c>
       <c r="D3002">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E3002" t="s">
         <v>2662</v>
@@ -59417,7 +59417,7 @@
         <v>1</v>
       </c>
       <c r="D3003">
-        <v>7620</v>
+        <v>7584</v>
       </c>
       <c r="E3003" t="s">
         <v>2661</v>
@@ -59485,7 +59485,7 @@
         <v>3</v>
       </c>
       <c r="D3007">
-        <v>18.75</v>
+        <v>18.5</v>
       </c>
       <c r="E3007" t="s">
         <v>2662</v>
@@ -59502,7 +59502,7 @@
         <v>1</v>
       </c>
       <c r="D3008">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E3008" t="s">
         <v>2661</v>
@@ -59519,7 +59519,7 @@
         <v>3</v>
       </c>
       <c r="D3009">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="E3009" t="s">
         <v>2662</v>
@@ -59536,7 +59536,7 @@
         <v>1</v>
       </c>
       <c r="D3010">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3010" t="s">
         <v>2661</v>
@@ -59689,7 +59689,7 @@
         <v>1</v>
       </c>
       <c r="D3019">
-        <v>719</v>
+        <v>716.75</v>
       </c>
       <c r="E3019" t="s">
         <v>2661</v>
@@ -60097,7 +60097,7 @@
         <v>3</v>
       </c>
       <c r="D3043">
-        <v>70.75</v>
+        <v>69.75</v>
       </c>
       <c r="E3043" t="s">
         <v>2662</v>
@@ -60114,7 +60114,7 @@
         <v>1</v>
       </c>
       <c r="D3044">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E3044" t="s">
         <v>2661</v>
@@ -60165,7 +60165,7 @@
         <v>3</v>
       </c>
       <c r="D3047">
-        <v>60.07855565584882</v>
+        <v>60.25</v>
       </c>
       <c r="E3047" t="s">
         <v>2662</v>
@@ -60182,7 +60182,7 @@
         <v>1</v>
       </c>
       <c r="D3048">
-        <v>720.9426678701859</v>
+        <v>723</v>
       </c>
       <c r="E3048" t="s">
         <v>2661</v>
@@ -60250,7 +60250,7 @@
         <v>1</v>
       </c>
       <c r="D3052">
-        <v>119.5</v>
+        <v>119</v>
       </c>
       <c r="E3052" t="s">
         <v>2661</v>
@@ -60335,7 +60335,7 @@
         <v>29</v>
       </c>
       <c r="D3057">
-        <v>440.75</v>
+        <v>440.25</v>
       </c>
       <c r="E3057" t="s">
         <v>2661</v>
@@ -60454,7 +60454,7 @@
         <v>1</v>
       </c>
       <c r="D3064">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="E3064" t="s">
         <v>2661</v>
@@ -60471,7 +60471,7 @@
         <v>1</v>
       </c>
       <c r="D3065">
-        <v>206</v>
+        <v>205.5</v>
       </c>
       <c r="E3065" t="s">
         <v>2661</v>
@@ -60488,7 +60488,7 @@
         <v>1</v>
       </c>
       <c r="D3066">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="E3066" t="s">
         <v>2661</v>
@@ -60522,7 +60522,7 @@
         <v>5</v>
       </c>
       <c r="D3068">
-        <v>819.25</v>
+        <v>818.25</v>
       </c>
       <c r="E3068" t="s">
         <v>2661</v>
@@ -60539,7 +60539,7 @@
         <v>5</v>
       </c>
       <c r="D3069">
-        <v>587.5</v>
+        <v>586</v>
       </c>
       <c r="E3069" t="s">
         <v>2661</v>
@@ -60964,7 +60964,7 @@
         <v>1</v>
       </c>
       <c r="D3094">
-        <v>92.75</v>
+        <v>92.5</v>
       </c>
       <c r="E3094" t="s">
         <v>2661</v>
@@ -61338,7 +61338,7 @@
         <v>1</v>
       </c>
       <c r="D3116">
-        <v>33</v>
+        <v>33.25</v>
       </c>
       <c r="E3116" t="s">
         <v>2661</v>
@@ -61627,7 +61627,7 @@
         <v>2</v>
       </c>
       <c r="D3133">
-        <v>149.25</v>
+        <v>149.5</v>
       </c>
       <c r="E3133" t="s">
         <v>2662</v>
@@ -61644,7 +61644,7 @@
         <v>1</v>
       </c>
       <c r="D3134">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="E3134" t="s">
         <v>2661</v>
@@ -61780,7 +61780,7 @@
         <v>1</v>
       </c>
       <c r="D3142">
-        <v>413.25</v>
+        <v>412.75</v>
       </c>
       <c r="E3142" t="s">
         <v>2661</v>
@@ -61933,7 +61933,7 @@
         <v>1</v>
       </c>
       <c r="D3151">
-        <v>328</v>
+        <v>327.5</v>
       </c>
       <c r="E3151" t="s">
         <v>2661</v>
@@ -61967,7 +61967,7 @@
         <v>1</v>
       </c>
       <c r="D3153">
-        <v>732</v>
+        <v>738.25</v>
       </c>
       <c r="E3153" t="s">
         <v>2661</v>
@@ -62069,7 +62069,7 @@
         <v>2</v>
       </c>
       <c r="D3159">
-        <v>136.2127659574468</v>
+        <v>136.25</v>
       </c>
       <c r="E3159" t="s">
         <v>2661</v>
@@ -62290,7 +62290,7 @@
         <v>1</v>
       </c>
       <c r="D3172">
-        <v>88.75</v>
+        <v>88.5</v>
       </c>
       <c r="E3172" t="s">
         <v>2661</v>
@@ -62307,7 +62307,7 @@
         <v>1</v>
       </c>
       <c r="D3173">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="E3173" t="s">
         <v>2661</v>
@@ -62868,7 +62868,7 @@
         <v>5</v>
       </c>
       <c r="D3206">
-        <v>543.5</v>
+        <v>542</v>
       </c>
       <c r="E3206" t="s">
         <v>2661</v>
@@ -62902,7 +62902,7 @@
         <v>332</v>
       </c>
       <c r="D3208">
-        <v>873.8900668167319</v>
+        <v>871.5</v>
       </c>
       <c r="E3208" t="s">
         <v>2662</v>
@@ -62919,7 +62919,7 @@
         <v>1</v>
       </c>
       <c r="D3209">
-        <v>3495.560267266927</v>
+        <v>3486</v>
       </c>
       <c r="E3209" t="s">
         <v>2661</v>
@@ -63293,7 +63293,7 @@
         <v>3</v>
       </c>
       <c r="D3231">
-        <v>378.25</v>
+        <v>376.25</v>
       </c>
       <c r="E3231" t="s">
         <v>2662</v>
@@ -63310,7 +63310,7 @@
         <v>1</v>
       </c>
       <c r="D3232">
-        <v>4539</v>
+        <v>4515</v>
       </c>
       <c r="E3232" t="s">
         <v>2661</v>
@@ -63327,7 +63327,7 @@
         <v>3</v>
       </c>
       <c r="D3233">
-        <v>114.3801514243204</v>
+        <v>114</v>
       </c>
       <c r="E3233" t="s">
         <v>2662</v>
@@ -63344,7 +63344,7 @@
         <v>1</v>
       </c>
       <c r="D3234">
-        <v>686.2809085459224</v>
+        <v>684</v>
       </c>
       <c r="E3234" t="s">
         <v>2661</v>
@@ -63395,7 +63395,7 @@
         <v>3</v>
       </c>
       <c r="D3237">
-        <v>113.9600531125866</v>
+        <v>113.75</v>
       </c>
       <c r="E3237" t="s">
         <v>2662</v>
@@ -63412,7 +63412,7 @@
         <v>1</v>
       </c>
       <c r="D3238">
-        <v>683.7603186755198</v>
+        <v>682.5</v>
       </c>
       <c r="E3238" t="s">
         <v>2661</v>
@@ -63786,7 +63786,7 @@
         <v>7</v>
       </c>
       <c r="D3260">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="E3260" t="s">
         <v>2662</v>
@@ -63803,7 +63803,7 @@
         <v>2</v>
       </c>
       <c r="D3261">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E3261" t="s">
         <v>2661</v>
@@ -64262,7 +64262,7 @@
         <v>1</v>
       </c>
       <c r="D3288">
-        <v>564.75</v>
+        <v>563</v>
       </c>
       <c r="E3288" t="s">
         <v>2661</v>
@@ -64415,7 +64415,7 @@
         <v>1</v>
       </c>
       <c r="D3297">
-        <v>70</v>
+        <v>69.5</v>
       </c>
       <c r="E3297" t="s">
         <v>2661</v>
@@ -64772,7 +64772,7 @@
         <v>1</v>
       </c>
       <c r="D3318">
-        <v>647.3543405257307</v>
+        <v>647.5</v>
       </c>
       <c r="E3318" t="s">
         <v>2661</v>
@@ -64942,7 +64942,7 @@
         <v>3</v>
       </c>
       <c r="D3328">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="E3328" t="s">
         <v>2662</v>
@@ -64959,7 +64959,7 @@
         <v>138</v>
       </c>
       <c r="D3329">
-        <v>400</v>
+        <v>397.5</v>
       </c>
       <c r="E3329" t="s">
         <v>2661</v>
@@ -64976,7 +64976,7 @@
         <v>1</v>
       </c>
       <c r="D3330">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="E3330" t="s">
         <v>2661</v>
@@ -65248,7 +65248,7 @@
         <v>3</v>
       </c>
       <c r="D3346">
-        <v>46.75</v>
+        <v>46.5</v>
       </c>
       <c r="E3346" t="s">
         <v>2662</v>
@@ -65265,7 +65265,7 @@
         <v>1</v>
       </c>
       <c r="D3347">
-        <v>280.5</v>
+        <v>279</v>
       </c>
       <c r="E3347" t="s">
         <v>2661</v>
@@ -65486,7 +65486,7 @@
         <v>1</v>
       </c>
       <c r="D3360">
-        <v>165.5</v>
+        <v>161.75</v>
       </c>
       <c r="E3360" t="s">
         <v>2661</v>
@@ -65690,7 +65690,7 @@
         <v>3</v>
       </c>
       <c r="D3372">
-        <v>86.75</v>
+        <v>86.25</v>
       </c>
       <c r="E3372" t="s">
         <v>2662</v>
@@ -65707,7 +65707,7 @@
         <v>1</v>
       </c>
       <c r="D3373">
-        <v>867.5</v>
+        <v>862.5</v>
       </c>
       <c r="E3373" t="s">
         <v>2661</v>
@@ -65724,7 +65724,7 @@
         <v>3</v>
       </c>
       <c r="D3374">
-        <v>86.75</v>
+        <v>86.25</v>
       </c>
       <c r="E3374" t="s">
         <v>2662</v>
@@ -65741,7 +65741,7 @@
         <v>1</v>
       </c>
       <c r="D3375">
-        <v>867.5</v>
+        <v>862.5</v>
       </c>
       <c r="E3375" t="s">
         <v>2661</v>
@@ -65758,7 +65758,7 @@
         <v>3</v>
       </c>
       <c r="D3376">
-        <v>86.25</v>
+        <v>85.75</v>
       </c>
       <c r="E3376" t="s">
         <v>2662</v>
@@ -65775,7 +65775,7 @@
         <v>1</v>
       </c>
       <c r="D3377">
-        <v>862.5</v>
+        <v>857.5</v>
       </c>
       <c r="E3377" t="s">
         <v>2661</v>
@@ -66183,7 +66183,7 @@
         <v>3</v>
       </c>
       <c r="D3401">
-        <v>90</v>
+        <v>90.25</v>
       </c>
       <c r="E3401" t="s">
         <v>2662</v>
@@ -66200,7 +66200,7 @@
         <v>1</v>
       </c>
       <c r="D3402">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E3402" t="s">
         <v>2661</v>
@@ -66557,7 +66557,7 @@
         <v>2</v>
       </c>
       <c r="D3423">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="E3423" t="s">
         <v>2661</v>
@@ -66574,7 +66574,7 @@
         <v>2</v>
       </c>
       <c r="D3424">
-        <v>107</v>
+        <v>106.75</v>
       </c>
       <c r="E3424" t="s">
         <v>2661</v>
@@ -67985,7 +67985,7 @@
         <v>23</v>
       </c>
       <c r="D3507">
-        <v>48.25</v>
+        <v>48</v>
       </c>
       <c r="E3507" t="s">
         <v>2662</v>
@@ -68002,7 +68002,7 @@
         <v>15</v>
       </c>
       <c r="D3508">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="E3508" t="s">
         <v>2661</v>
@@ -68019,7 +68019,7 @@
         <v>1</v>
       </c>
       <c r="D3509">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E3509" t="s">
         <v>2661</v>
@@ -68274,7 +68274,7 @@
         <v>23</v>
       </c>
       <c r="D3524">
-        <v>50.37169752566348</v>
+        <v>50.5</v>
       </c>
       <c r="E3524" t="s">
         <v>2662</v>
@@ -68291,7 +68291,7 @@
         <v>1</v>
       </c>
       <c r="D3525">
-        <v>1208.920740615923</v>
+        <v>1212</v>
       </c>
       <c r="E3525" t="s">
         <v>2661</v>
@@ -68308,7 +68308,7 @@
         <v>23</v>
       </c>
       <c r="D3526">
-        <v>50.37170646324595</v>
+        <v>50.5</v>
       </c>
       <c r="E3526" t="s">
         <v>2662</v>
@@ -68325,7 +68325,7 @@
         <v>1</v>
       </c>
       <c r="D3527">
-        <v>1208.920955117903</v>
+        <v>1212</v>
       </c>
       <c r="E3527" t="s">
         <v>2661</v>
@@ -68461,7 +68461,7 @@
         <v>1</v>
       </c>
       <c r="D3535">
-        <v>93</v>
+        <v>92.75</v>
       </c>
       <c r="E3535" t="s">
         <v>2661</v>
@@ -68478,7 +68478,7 @@
         <v>1</v>
       </c>
       <c r="D3536">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="E3536" t="s">
         <v>2661</v>
@@ -68495,7 +68495,7 @@
         <v>1</v>
       </c>
       <c r="D3537">
-        <v>96.5</v>
+        <v>96.25</v>
       </c>
       <c r="E3537" t="s">
         <v>2661</v>
@@ -68512,7 +68512,7 @@
         <v>3</v>
       </c>
       <c r="D3538">
-        <v>44.25</v>
+        <v>44</v>
       </c>
       <c r="E3538" t="s">
         <v>2662</v>
@@ -68529,7 +68529,7 @@
         <v>1</v>
       </c>
       <c r="D3539">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E3539" t="s">
         <v>2661</v>
@@ -68801,7 +68801,7 @@
         <v>1</v>
       </c>
       <c r="D3555">
-        <v>70.5</v>
+        <v>70.25</v>
       </c>
       <c r="E3555" t="s">
         <v>2661</v>
@@ -68818,7 +68818,7 @@
         <v>1</v>
       </c>
       <c r="D3556">
-        <v>70.5</v>
+        <v>70.25</v>
       </c>
       <c r="E3556" t="s">
         <v>2661</v>
@@ -68937,7 +68937,7 @@
         <v>332</v>
       </c>
       <c r="D3563">
-        <v>630.75</v>
+        <v>629.5</v>
       </c>
       <c r="E3563" t="s">
         <v>2662</v>
@@ -68954,7 +68954,7 @@
         <v>1</v>
       </c>
       <c r="D3564">
-        <v>2523</v>
+        <v>2518</v>
       </c>
       <c r="E3564" t="s">
         <v>2661</v>
@@ -68971,7 +68971,7 @@
         <v>3</v>
       </c>
       <c r="D3565">
-        <v>263.5</v>
+        <v>263.25</v>
       </c>
       <c r="E3565" t="s">
         <v>2662</v>
@@ -68988,7 +68988,7 @@
         <v>1</v>
       </c>
       <c r="D3566">
-        <v>6324</v>
+        <v>6318</v>
       </c>
       <c r="E3566" t="s">
         <v>2661</v>
@@ -69073,7 +69073,7 @@
         <v>1</v>
       </c>
       <c r="D3571">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3571" t="s">
         <v>2661</v>
@@ -69124,7 +69124,7 @@
         <v>3</v>
       </c>
       <c r="D3574">
-        <v>119.25</v>
+        <v>119</v>
       </c>
       <c r="E3574" t="s">
         <v>2662</v>
@@ -69141,7 +69141,7 @@
         <v>1</v>
       </c>
       <c r="D3575">
-        <v>715.5</v>
+        <v>714</v>
       </c>
       <c r="E3575" t="s">
         <v>2661</v>
@@ -69226,7 +69226,7 @@
         <v>1</v>
       </c>
       <c r="D3580">
-        <v>128</v>
+        <v>127.75</v>
       </c>
       <c r="E3580" t="s">
         <v>2661</v>
@@ -69243,7 +69243,7 @@
         <v>1</v>
       </c>
       <c r="D3581">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="E3581" t="s">
         <v>2661</v>
@@ -69260,7 +69260,7 @@
         <v>1</v>
       </c>
       <c r="D3582">
-        <v>540.5</v>
+        <v>539</v>
       </c>
       <c r="E3582" t="s">
         <v>2661</v>
@@ -69311,7 +69311,7 @@
         <v>1</v>
       </c>
       <c r="D3585">
-        <v>761.5</v>
+        <v>759</v>
       </c>
       <c r="E3585" t="s">
         <v>2661</v>
@@ -69515,7 +69515,7 @@
         <v>2</v>
       </c>
       <c r="D3597">
-        <v>162.75</v>
+        <v>162.5</v>
       </c>
       <c r="E3597" t="s">
         <v>2661</v>
@@ -69923,7 +69923,7 @@
         <v>3</v>
       </c>
       <c r="D3621">
-        <v>808.5</v>
+        <v>805.75</v>
       </c>
       <c r="E3621" t="s">
         <v>2661</v>
@@ -70008,7 +70008,7 @@
         <v>1</v>
       </c>
       <c r="D3626">
-        <v>993</v>
+        <v>989.75</v>
       </c>
       <c r="E3626" t="s">
         <v>2661</v>
@@ -70552,7 +70552,7 @@
         <v>1</v>
       </c>
       <c r="D3658">
-        <v>303.5</v>
+        <v>302.75</v>
       </c>
       <c r="E3658" t="s">
         <v>2661</v>
@@ -70569,7 +70569,7 @@
         <v>1</v>
       </c>
       <c r="D3659">
-        <v>303.5</v>
+        <v>302.75</v>
       </c>
       <c r="E3659" t="s">
         <v>2661</v>
@@ -71164,7 +71164,7 @@
         <v>7</v>
       </c>
       <c r="D3694">
-        <v>37.25</v>
+        <v>37</v>
       </c>
       <c r="E3694" t="s">
         <v>2662</v>
@@ -71181,7 +71181,7 @@
         <v>1</v>
       </c>
       <c r="D3695">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E3695" t="s">
         <v>2661</v>
@@ -71538,7 +71538,7 @@
         <v>3</v>
       </c>
       <c r="D3716">
-        <v>388.3231118783586</v>
+        <v>386</v>
       </c>
       <c r="E3716" t="s">
         <v>2662</v>
@@ -71555,7 +71555,7 @@
         <v>1</v>
       </c>
       <c r="D3717">
-        <v>4659.877342540303</v>
+        <v>4632</v>
       </c>
       <c r="E3717" t="s">
         <v>2661</v>
@@ -71589,7 +71589,7 @@
         <v>3</v>
       </c>
       <c r="D3719">
-        <v>161.25</v>
+        <v>161</v>
       </c>
       <c r="E3719" t="s">
         <v>2662</v>
@@ -71606,7 +71606,7 @@
         <v>1</v>
       </c>
       <c r="D3720">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E3720" t="s">
         <v>2661</v>
@@ -71640,7 +71640,7 @@
         <v>2</v>
       </c>
       <c r="D3722">
-        <v>143.8458576654585</v>
+        <v>144</v>
       </c>
       <c r="E3722" t="s">
         <v>2661</v>
@@ -71657,7 +71657,7 @@
         <v>2</v>
       </c>
       <c r="D3723">
-        <v>143.8023881606256</v>
+        <v>143.25</v>
       </c>
       <c r="E3723" t="s">
         <v>2661</v>
@@ -71674,7 +71674,7 @@
         <v>2</v>
       </c>
       <c r="D3724">
-        <v>143.8432875042268</v>
+        <v>144</v>
       </c>
       <c r="E3724" t="s">
         <v>2661</v>
@@ -71861,7 +71861,7 @@
         <v>3</v>
       </c>
       <c r="D3735">
-        <v>27.5</v>
+        <v>27.25</v>
       </c>
       <c r="E3735" t="s">
         <v>2662</v>
@@ -71878,7 +71878,7 @@
         <v>1</v>
       </c>
       <c r="D3736">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E3736" t="s">
         <v>2661</v>
@@ -71929,7 +71929,7 @@
         <v>3</v>
       </c>
       <c r="D3739">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E3739" t="s">
         <v>2662</v>
@@ -71946,7 +71946,7 @@
         <v>1</v>
       </c>
       <c r="D3740">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E3740" t="s">
         <v>2661</v>
@@ -72167,7 +72167,7 @@
         <v>4</v>
       </c>
       <c r="D3753">
-        <v>280</v>
+        <v>278.25</v>
       </c>
       <c r="E3753" t="s">
         <v>2662</v>
@@ -72184,7 +72184,7 @@
         <v>1</v>
       </c>
       <c r="D3754">
-        <v>2800</v>
+        <v>2782.5</v>
       </c>
       <c r="E3754" t="s">
         <v>2661</v>
@@ -72201,7 +72201,7 @@
         <v>4</v>
       </c>
       <c r="D3755">
-        <v>262.75</v>
+        <v>262</v>
       </c>
       <c r="E3755" t="s">
         <v>2662</v>
@@ -72218,7 +72218,7 @@
         <v>1</v>
       </c>
       <c r="D3756">
-        <v>2627.5</v>
+        <v>2620</v>
       </c>
       <c r="E3756" t="s">
         <v>2661</v>
@@ -72269,7 +72269,7 @@
         <v>4</v>
       </c>
       <c r="D3759">
-        <v>268.75</v>
+        <v>267</v>
       </c>
       <c r="E3759" t="s">
         <v>2662</v>
@@ -72286,7 +72286,7 @@
         <v>1</v>
       </c>
       <c r="D3760">
-        <v>2687.5</v>
+        <v>2670</v>
       </c>
       <c r="E3760" t="s">
         <v>2661</v>
@@ -72303,7 +72303,7 @@
         <v>4</v>
       </c>
       <c r="D3761">
-        <v>258</v>
+        <v>256.75</v>
       </c>
       <c r="E3761" t="s">
         <v>2662</v>
@@ -72320,7 +72320,7 @@
         <v>1</v>
       </c>
       <c r="D3762">
-        <v>2580</v>
+        <v>2567.5</v>
       </c>
       <c r="E3762" t="s">
         <v>2661</v>
@@ -72711,7 +72711,7 @@
         <v>10</v>
       </c>
       <c r="D3785">
-        <v>17</v>
+        <v>16.75</v>
       </c>
       <c r="E3785" t="s">
         <v>2662</v>
@@ -72728,7 +72728,7 @@
         <v>1</v>
       </c>
       <c r="D3786">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E3786" t="s">
         <v>2661</v>
@@ -72762,7 +72762,7 @@
         <v>3</v>
       </c>
       <c r="D3788">
-        <v>47.67658060673651</v>
+        <v>47.75</v>
       </c>
       <c r="E3788" t="s">
         <v>2662</v>
@@ -72779,7 +72779,7 @@
         <v>1</v>
       </c>
       <c r="D3789">
-        <v>572.1189672808381</v>
+        <v>573</v>
       </c>
       <c r="E3789" t="s">
         <v>2661</v>
@@ -72796,7 +72796,7 @@
         <v>3</v>
       </c>
       <c r="D3790">
-        <v>47.67658050010557</v>
+        <v>47.75</v>
       </c>
       <c r="E3790" t="s">
         <v>2662</v>
@@ -72813,7 +72813,7 @@
         <v>1</v>
       </c>
       <c r="D3791">
-        <v>572.1189660012669</v>
+        <v>573</v>
       </c>
       <c r="E3791" t="s">
         <v>2661</v>
@@ -72830,7 +72830,7 @@
         <v>3</v>
       </c>
       <c r="D3792">
-        <v>47.67658060948231</v>
+        <v>47.75</v>
       </c>
       <c r="E3792" t="s">
         <v>2662</v>
@@ -72847,7 +72847,7 @@
         <v>1</v>
       </c>
       <c r="D3793">
-        <v>572.1189673137877</v>
+        <v>573</v>
       </c>
       <c r="E3793" t="s">
         <v>2661</v>
@@ -72864,7 +72864,7 @@
         <v>3</v>
       </c>
       <c r="D3794">
-        <v>47.67658039062051</v>
+        <v>47.75</v>
       </c>
       <c r="E3794" t="s">
         <v>2662</v>
@@ -72881,7 +72881,7 @@
         <v>1</v>
       </c>
       <c r="D3795">
-        <v>572.1189646874461</v>
+        <v>573</v>
       </c>
       <c r="E3795" t="s">
         <v>2661</v>
@@ -72932,7 +72932,7 @@
         <v>2</v>
       </c>
       <c r="D3798">
-        <v>393.75</v>
+        <v>393.5</v>
       </c>
       <c r="E3798" t="s">
         <v>2661</v>
@@ -73136,7 +73136,7 @@
         <v>7</v>
       </c>
       <c r="D3810">
-        <v>124.75</v>
+        <v>124.25</v>
       </c>
       <c r="E3810" t="s">
         <v>2662</v>
@@ -73153,7 +73153,7 @@
         <v>1</v>
       </c>
       <c r="D3811">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="E3811" t="s">
         <v>2661</v>
@@ -73170,7 +73170,7 @@
         <v>7</v>
       </c>
       <c r="D3812">
-        <v>80.75</v>
+        <v>80.25</v>
       </c>
       <c r="E3812" t="s">
         <v>2662</v>
@@ -73187,7 +73187,7 @@
         <v>1</v>
       </c>
       <c r="D3813">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E3813" t="s">
         <v>2661</v>
@@ -73272,7 +73272,7 @@
         <v>7</v>
       </c>
       <c r="D3818">
-        <v>121.400180488404</v>
+        <v>121.5</v>
       </c>
       <c r="E3818" t="s">
         <v>2662</v>
@@ -73289,7 +73289,7 @@
         <v>1</v>
       </c>
       <c r="D3819">
-        <v>1456.802165860848</v>
+        <v>1458</v>
       </c>
       <c r="E3819" t="s">
         <v>2661</v>
@@ -73306,7 +73306,7 @@
         <v>7</v>
       </c>
       <c r="D3820">
-        <v>163.75</v>
+        <v>163.5</v>
       </c>
       <c r="E3820" t="s">
         <v>2662</v>
@@ -73323,7 +73323,7 @@
         <v>1</v>
       </c>
       <c r="D3821">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="E3821" t="s">
         <v>2661</v>
@@ -73442,7 +73442,7 @@
         <v>332</v>
       </c>
       <c r="D3828">
-        <v>881.9269476401817</v>
+        <v>878.75</v>
       </c>
       <c r="E3828" t="s">
         <v>2662</v>
@@ -73459,7 +73459,7 @@
         <v>1</v>
       </c>
       <c r="D3829">
-        <v>3527.707790560727</v>
+        <v>3515</v>
       </c>
       <c r="E3829" t="s">
         <v>2661</v>
@@ -73629,7 +73629,7 @@
         <v>3</v>
       </c>
       <c r="D3839">
-        <v>85.25</v>
+        <v>85</v>
       </c>
       <c r="E3839" t="s">
         <v>2662</v>
@@ -73646,7 +73646,7 @@
         <v>1</v>
       </c>
       <c r="D3840">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E3840" t="s">
         <v>2661</v>
@@ -73697,7 +73697,7 @@
         <v>3</v>
       </c>
       <c r="D3843">
-        <v>49</v>
+        <v>49.25</v>
       </c>
       <c r="E3843" t="s">
         <v>2662</v>
@@ -73714,7 +73714,7 @@
         <v>1</v>
       </c>
       <c r="D3844">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E3844" t="s">
         <v>2661</v>
@@ -73799,7 +73799,7 @@
         <v>3</v>
       </c>
       <c r="D3849">
-        <v>49.1581726885569</v>
+        <v>49</v>
       </c>
       <c r="E3849" t="s">
         <v>2662</v>
@@ -73816,7 +73816,7 @@
         <v>1</v>
       </c>
       <c r="D3850">
-        <v>589.8980722626828</v>
+        <v>588</v>
       </c>
       <c r="E3850" t="s">
         <v>2661</v>
@@ -73935,7 +73935,7 @@
         <v>3</v>
       </c>
       <c r="D3857">
-        <v>65.25</v>
+        <v>65.5</v>
       </c>
       <c r="E3857" t="s">
         <v>2662</v>
@@ -73952,7 +73952,7 @@
         <v>1</v>
       </c>
       <c r="D3858">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="E3858" t="s">
         <v>2661</v>
@@ -74003,7 +74003,7 @@
         <v>14</v>
       </c>
       <c r="D3861">
-        <v>134</v>
+        <v>134.25</v>
       </c>
       <c r="E3861" t="s">
         <v>2662</v>
@@ -74020,7 +74020,7 @@
         <v>1</v>
       </c>
       <c r="D3862">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="E3862" t="s">
         <v>2661</v>
@@ -74037,7 +74037,7 @@
         <v>14</v>
       </c>
       <c r="D3863">
-        <v>97.75</v>
+        <v>98</v>
       </c>
       <c r="E3863" t="s">
         <v>2662</v>
@@ -74054,7 +74054,7 @@
         <v>1</v>
       </c>
       <c r="D3864">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="E3864" t="s">
         <v>2661</v>
@@ -74071,7 +74071,7 @@
         <v>14</v>
       </c>
       <c r="D3865">
-        <v>171.5</v>
+        <v>171.75</v>
       </c>
       <c r="E3865" t="s">
         <v>2662</v>
@@ -74088,7 +74088,7 @@
         <v>1</v>
       </c>
       <c r="D3866">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="E3866" t="s">
         <v>2661</v>
@@ -74139,7 +74139,7 @@
         <v>3</v>
       </c>
       <c r="D3869">
-        <v>62</v>
+        <v>61.75</v>
       </c>
       <c r="E3869" t="s">
         <v>2662</v>
@@ -74156,7 +74156,7 @@
         <v>1</v>
       </c>
       <c r="D3870">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="E3870" t="s">
         <v>2661</v>
@@ -74207,7 +74207,7 @@
         <v>3</v>
       </c>
       <c r="D3873">
-        <v>93.5</v>
+        <v>93.75</v>
       </c>
       <c r="E3873" t="s">
         <v>2662</v>
@@ -74224,7 +74224,7 @@
         <v>1</v>
       </c>
       <c r="D3874">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="E3874" t="s">
         <v>2661</v>
@@ -74479,7 +74479,7 @@
         <v>3</v>
       </c>
       <c r="D3889">
-        <v>113.75</v>
+        <v>113.25</v>
       </c>
       <c r="E3889" t="s">
         <v>2662</v>
@@ -74496,7 +74496,7 @@
         <v>1</v>
       </c>
       <c r="D3890">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="E3890" t="s">
         <v>2661</v>
@@ -74513,7 +74513,7 @@
         <v>3</v>
       </c>
       <c r="D3891">
-        <v>76.5</v>
+        <v>76.25</v>
       </c>
       <c r="E3891" t="s">
         <v>2662</v>
@@ -74530,7 +74530,7 @@
         <v>1</v>
       </c>
       <c r="D3892">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E3892" t="s">
         <v>2661</v>
@@ -74615,7 +74615,7 @@
         <v>3</v>
       </c>
       <c r="D3897">
-        <v>213.0298367824167</v>
+        <v>213.25</v>
       </c>
       <c r="E3897" t="s">
         <v>2662</v>
@@ -74632,7 +74632,7 @@
         <v>1</v>
       </c>
       <c r="D3898">
-        <v>2556.358041389001</v>
+        <v>2559</v>
       </c>
       <c r="E3898" t="s">
         <v>2661</v>
@@ -74649,7 +74649,7 @@
         <v>3</v>
       </c>
       <c r="D3899">
-        <v>213.5224859019686</v>
+        <v>213.75</v>
       </c>
       <c r="E3899" t="s">
         <v>2662</v>
@@ -74666,7 +74666,7 @@
         <v>1</v>
       </c>
       <c r="D3900">
-        <v>2562.269830823623</v>
+        <v>2565</v>
       </c>
       <c r="E3900" t="s">
         <v>2661</v>
@@ -74683,7 +74683,7 @@
         <v>3</v>
       </c>
       <c r="D3901">
-        <v>213.7096852225579</v>
+        <v>213.75</v>
       </c>
       <c r="E3901" t="s">
         <v>2662</v>
@@ -74700,7 +74700,7 @@
         <v>1</v>
       </c>
       <c r="D3902">
-        <v>2564.516222670694</v>
+        <v>2565</v>
       </c>
       <c r="E3902" t="s">
         <v>2661</v>
@@ -74717,7 +74717,7 @@
         <v>3</v>
       </c>
       <c r="D3903">
-        <v>212.9723810773199</v>
+        <v>213</v>
       </c>
       <c r="E3903" t="s">
         <v>2662</v>
@@ -74734,7 +74734,7 @@
         <v>1</v>
       </c>
       <c r="D3904">
-        <v>2555.668572927839</v>
+        <v>2556</v>
       </c>
       <c r="E3904" t="s">
         <v>2661</v>
@@ -74751,7 +74751,7 @@
         <v>3</v>
       </c>
       <c r="D3905">
-        <v>214.7140334403131</v>
+        <v>214.75</v>
       </c>
       <c r="E3905" t="s">
         <v>2662</v>
@@ -74768,7 +74768,7 @@
         <v>1</v>
       </c>
       <c r="D3906">
-        <v>2576.568401283757</v>
+        <v>2577</v>
       </c>
       <c r="E3906" t="s">
         <v>2661</v>
@@ -74785,7 +74785,7 @@
         <v>3</v>
       </c>
       <c r="D3907">
-        <v>213.7201115350936</v>
+        <v>213.75</v>
       </c>
       <c r="E3907" t="s">
         <v>2662</v>
@@ -74802,7 +74802,7 @@
         <v>1</v>
       </c>
       <c r="D3908">
-        <v>2564.641338421123</v>
+        <v>2565</v>
       </c>
       <c r="E3908" t="s">
         <v>2661</v>
@@ -74887,7 +74887,7 @@
         <v>1</v>
       </c>
       <c r="D3913">
-        <v>59.75</v>
+        <v>59.5</v>
       </c>
       <c r="E3913" t="s">
         <v>2661</v>
@@ -74904,7 +74904,7 @@
         <v>1</v>
       </c>
       <c r="D3914">
-        <v>98.25</v>
+        <v>97.75</v>
       </c>
       <c r="E3914" t="s">
         <v>2661</v>
@@ -74938,7 +74938,7 @@
         <v>4</v>
       </c>
       <c r="D3916">
-        <v>237.25</v>
+        <v>236</v>
       </c>
       <c r="E3916" t="s">
         <v>2662</v>
@@ -74955,7 +74955,7 @@
         <v>1</v>
       </c>
       <c r="D3917">
-        <v>4745</v>
+        <v>4720</v>
       </c>
       <c r="E3917" t="s">
         <v>2661</v>
@@ -74972,7 +74972,7 @@
         <v>2</v>
       </c>
       <c r="D3918">
-        <v>200.020365329145</v>
+        <v>200.25</v>
       </c>
       <c r="E3918" t="s">
         <v>2661</v>
@@ -74989,7 +74989,7 @@
         <v>2</v>
       </c>
       <c r="D3919">
-        <v>199.1746281687095</v>
+        <v>199.25</v>
       </c>
       <c r="E3919" t="s">
         <v>2661</v>
@@ -75210,7 +75210,7 @@
         <v>2</v>
       </c>
       <c r="D3932">
-        <v>138.9988359901298</v>
+        <v>139</v>
       </c>
       <c r="E3932" t="s">
         <v>2661</v>
@@ -75227,7 +75227,7 @@
         <v>2</v>
       </c>
       <c r="D3933">
-        <v>138.9988422624013</v>
+        <v>139</v>
       </c>
       <c r="E3933" t="s">
         <v>2661</v>
@@ -75244,7 +75244,7 @@
         <v>2</v>
       </c>
       <c r="D3934">
-        <v>138.9988422624013</v>
+        <v>139</v>
       </c>
       <c r="E3934" t="s">
         <v>2661</v>
@@ -75261,7 +75261,7 @@
         <v>2</v>
       </c>
       <c r="D3935">
-        <v>138.9988422624013</v>
+        <v>139</v>
       </c>
       <c r="E3935" t="s">
         <v>2661</v>
@@ -75278,7 +75278,7 @@
         <v>2</v>
       </c>
       <c r="D3936">
-        <v>138.9988422624013</v>
+        <v>139</v>
       </c>
       <c r="E3936" t="s">
         <v>2661</v>
@@ -75295,7 +75295,7 @@
         <v>2</v>
       </c>
       <c r="D3937">
-        <v>138.9988422624013</v>
+        <v>139</v>
       </c>
       <c r="E3937" t="s">
         <v>2661</v>
@@ -75312,7 +75312,7 @@
         <v>2</v>
       </c>
       <c r="D3938">
-        <v>138.9988422624013</v>
+        <v>139</v>
       </c>
       <c r="E3938" t="s">
         <v>2661</v>
@@ -75363,7 +75363,7 @@
         <v>2</v>
       </c>
       <c r="D3941">
-        <v>186.5</v>
+        <v>185.5</v>
       </c>
       <c r="E3941" t="s">
         <v>2661</v>
@@ -75380,7 +75380,7 @@
         <v>3</v>
       </c>
       <c r="D3942">
-        <v>23</v>
+        <v>22.75</v>
       </c>
       <c r="E3942" t="s">
         <v>2662</v>
@@ -75397,7 +75397,7 @@
         <v>1</v>
       </c>
       <c r="D3943">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="E3943" t="s">
         <v>2661</v>
@@ -75448,7 +75448,7 @@
         <v>7</v>
       </c>
       <c r="D3946">
-        <v>35.75</v>
+        <v>35.5</v>
       </c>
       <c r="E3946" t="s">
         <v>2662</v>
@@ -75465,7 +75465,7 @@
         <v>1</v>
       </c>
       <c r="D3947">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E3947" t="s">
         <v>2661</v>
@@ -75958,7 +75958,7 @@
         <v>3</v>
       </c>
       <c r="D3976">
-        <v>80.5</v>
+        <v>80</v>
       </c>
       <c r="E3976" t="s">
         <v>2662</v>
@@ -75975,7 +75975,7 @@
         <v>2</v>
       </c>
       <c r="D3977">
-        <v>241.5</v>
+        <v>240</v>
       </c>
       <c r="E3977" t="s">
         <v>2661</v>
@@ -76145,7 +76145,7 @@
         <v>3</v>
       </c>
       <c r="D3987">
-        <v>39.75</v>
+        <v>39.5</v>
       </c>
       <c r="E3987" t="s">
         <v>2662</v>
@@ -76162,7 +76162,7 @@
         <v>1</v>
       </c>
       <c r="D3988">
-        <v>238.5</v>
+        <v>237</v>
       </c>
       <c r="E3988" t="s">
         <v>2661</v>
@@ -76315,7 +76315,7 @@
         <v>3</v>
       </c>
       <c r="D3997">
-        <v>73.25</v>
+        <v>72.5</v>
       </c>
       <c r="E3997" t="s">
         <v>2662</v>
@@ -76332,7 +76332,7 @@
         <v>1</v>
       </c>
       <c r="D3998">
-        <v>439.5</v>
+        <v>435</v>
       </c>
       <c r="E3998" t="s">
         <v>2661</v>
@@ -76349,7 +76349,7 @@
         <v>3</v>
       </c>
       <c r="D3999">
-        <v>169.75</v>
+        <v>168.75</v>
       </c>
       <c r="E3999" t="s">
         <v>2662</v>
@@ -76366,7 +76366,7 @@
         <v>1</v>
       </c>
       <c r="D4000">
-        <v>1018.5</v>
+        <v>1012.5</v>
       </c>
       <c r="E4000" t="s">
         <v>2661</v>
